--- a/stats2.xlsx
+++ b/stats2.xlsx
@@ -5,14 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neel/Downloads/Documents/Git/sprinkle-safari-3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neel/Git/sprinkle-safari-3/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="460" windowWidth="28160" windowHeight="15940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="640" yWindow="480" windowWidth="28160" windowHeight="15940" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Stats" sheetId="1" r:id="rId1"/>
+    <sheet name="Calculator" sheetId="2" r:id="rId2"/>
+    <sheet name="Old Stats" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="177">
   <si>
     <t>Name</t>
   </si>
@@ -528,6 +530,36 @@
   </si>
   <si>
     <t>Damages any foe, or heals any friend, nearby.</t>
+  </si>
+  <si>
+    <t>Animal</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>HKO</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>BaseAttack</t>
+  </si>
+  <si>
+    <t>BaseDefense</t>
+  </si>
+  <si>
+    <t>BaseHP</t>
+  </si>
+  <si>
+    <t>BaseSkill</t>
   </si>
 </sst>
 </file>
@@ -860,17 +892,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B54" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.5" customWidth="1"/>
+    <col min="6" max="6" width="3.5" customWidth="1"/>
+    <col min="8" max="8" width="2.83203125" customWidth="1"/>
     <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.83203125" customWidth="1"/>
     <col min="12" max="12" width="78.1640625" customWidth="1"/>
@@ -892,10 +925,7 @@
       <c r="E1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>116</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -915,8 +945,8 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" t="str">
-        <f>IF(B2&gt;0,SUM(B2:F2),"")</f>
+      <c r="G2" t="str">
+        <f>IF(B2&gt;0,SUM(B2:E2),"")</f>
         <v/>
       </c>
     </row>
@@ -924,8 +954,8 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="H3" t="str">
-        <f t="shared" ref="H3:H66" si="0">IF(B3&gt;0,SUM(B3:F3),"")</f>
+      <c r="G3" t="str">
+        <f>IF(B3&gt;0,SUM(B3:E3),"")</f>
         <v/>
       </c>
     </row>
@@ -945,15 +975,12 @@
       <c r="E4">
         <v>110</v>
       </c>
-      <c r="F4">
-        <v>100</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>435</v>
+      <c r="G4">
+        <f>IF(B4&gt;0,SUM(B4:E4),"")</f>
+        <v>335</v>
       </c>
       <c r="I4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4" t="s">
         <v>83</v>
@@ -969,8 +996,8 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="H5" t="str">
-        <f t="shared" si="0"/>
+      <c r="G5" t="str">
+        <f>IF(B5&gt;0,SUM(B5:E5),"")</f>
         <v/>
       </c>
     </row>
@@ -990,12 +1017,9 @@
       <c r="E6">
         <v>105</v>
       </c>
-      <c r="F6">
-        <v>90</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>475</v>
+      <c r="G6">
+        <f>IF(B6&gt;0,SUM(B6:E6),"")</f>
+        <v>385</v>
       </c>
       <c r="I6">
         <v>5</v>
@@ -1014,8 +1038,8 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="H7" t="str">
-        <f t="shared" si="0"/>
+      <c r="G7" t="str">
+        <f>IF(B7&gt;0,SUM(B7:E7),"")</f>
         <v/>
       </c>
     </row>
@@ -1023,8 +1047,8 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="H8" t="str">
-        <f t="shared" si="0"/>
+      <c r="G8" t="str">
+        <f>IF(B8&gt;0,SUM(B8:E8),"")</f>
         <v/>
       </c>
     </row>
@@ -1044,15 +1068,12 @@
       <c r="E9">
         <v>95</v>
       </c>
-      <c r="F9">
-        <v>80</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>480</v>
+      <c r="G9">
+        <f>IF(B9&gt;0,SUM(B9:E9),"")</f>
+        <v>400</v>
       </c>
       <c r="I9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J9" t="s">
         <v>127</v>
@@ -1080,12 +1101,9 @@
       <c r="E10">
         <v>90</v>
       </c>
-      <c r="F10">
-        <v>100</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>380</v>
+      <c r="G10">
+        <f>IF(B10&gt;0,SUM(B10:E10),"")</f>
+        <v>280</v>
       </c>
       <c r="I10">
         <v>5</v>
@@ -1104,8 +1122,8 @@
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="H11" t="str">
-        <f t="shared" si="0"/>
+      <c r="G11" t="str">
+        <f>IF(B11&gt;0,SUM(B11:E11),"")</f>
         <v/>
       </c>
     </row>
@@ -1125,15 +1143,12 @@
       <c r="E12">
         <v>100</v>
       </c>
-      <c r="F12">
-        <v>90</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>495</v>
+      <c r="G12">
+        <f>IF(B12&gt;0,SUM(B12:E12),"")</f>
+        <v>405</v>
       </c>
       <c r="I12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J12" t="s">
         <v>99</v>
@@ -1161,20 +1176,20 @@
       <c r="E13">
         <v>150</v>
       </c>
-      <c r="F13">
-        <v>110</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
-        <v>510</v>
+      <c r="G13">
+        <f>IF(B13&gt;0,SUM(B13:E13),"")</f>
+        <v>400</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="H14" t="str">
-        <f t="shared" si="0"/>
+      <c r="G14" t="str">
+        <f>IF(B14&gt;0,SUM(B14:E14),"")</f>
         <v/>
       </c>
       <c r="J14" t="s">
@@ -1191,8 +1206,8 @@
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="H15" t="str">
-        <f t="shared" si="0"/>
+      <c r="G15" t="str">
+        <f>IF(B15&gt;0,SUM(B15:E15),"")</f>
         <v/>
       </c>
     </row>
@@ -1212,15 +1227,12 @@
       <c r="E16">
         <v>80</v>
       </c>
-      <c r="F16">
-        <v>80</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="0"/>
-        <v>445</v>
+      <c r="G16">
+        <f>IF(B16&gt;0,SUM(B16:E16),"")</f>
+        <v>365</v>
       </c>
       <c r="I16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J16" t="s">
         <v>86</v>
@@ -1248,15 +1260,12 @@
       <c r="E17">
         <v>70</v>
       </c>
-      <c r="F17">
-        <v>65</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="0"/>
-        <v>475</v>
+      <c r="G17">
+        <f>IF(B17&gt;0,SUM(B17:E17),"")</f>
+        <v>410</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J17" t="s">
         <v>142</v>
@@ -1284,15 +1293,12 @@
       <c r="E18">
         <v>115</v>
       </c>
-      <c r="F18">
-        <v>85</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="0"/>
-        <v>490</v>
+      <c r="G18">
+        <f>IF(B18&gt;0,SUM(B18:E18),"")</f>
+        <v>405</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J18" t="s">
         <v>118</v>
@@ -1320,15 +1326,12 @@
       <c r="E19">
         <v>110</v>
       </c>
-      <c r="F19">
-        <v>105</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="0"/>
-        <v>490</v>
+      <c r="G19">
+        <f>IF(B19&gt;0,SUM(B19:E19),"")</f>
+        <v>385</v>
       </c>
       <c r="I19">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1347,12 +1350,9 @@
       <c r="E20">
         <v>140</v>
       </c>
-      <c r="F20">
-        <v>90</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="0"/>
-        <v>510</v>
+      <c r="G20">
+        <f>IF(B20&gt;0,SUM(B20:E20),"")</f>
+        <v>420</v>
       </c>
       <c r="I20">
         <v>5</v>
@@ -1374,12 +1374,12 @@
       <c r="E21">
         <v>75</v>
       </c>
-      <c r="F21">
-        <v>130</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="0"/>
-        <v>465</v>
+      <c r="G21">
+        <f>IF(B21&gt;0,SUM(B21:E21),"")</f>
+        <v>335</v>
+      </c>
+      <c r="I21">
+        <v>7</v>
       </c>
       <c r="J21" t="s">
         <v>91</v>
@@ -1407,12 +1407,12 @@
       <c r="E22">
         <v>100</v>
       </c>
-      <c r="F22">
-        <v>95</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="0"/>
-        <v>515</v>
+      <c r="G22">
+        <f>IF(B22&gt;0,SUM(B22:E22),"")</f>
+        <v>420</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
       </c>
       <c r="J22" t="s">
         <v>111</v>
@@ -1440,12 +1440,9 @@
       <c r="E23">
         <v>75</v>
       </c>
-      <c r="F23">
-        <v>85</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="0"/>
-        <v>390</v>
+      <c r="G23">
+        <f>IF(B23&gt;0,SUM(B23:E23),"")</f>
+        <v>305</v>
       </c>
       <c r="I23">
         <v>4</v>
@@ -1476,15 +1473,12 @@
       <c r="E24">
         <v>110</v>
       </c>
-      <c r="F24">
-        <v>125</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="0"/>
-        <v>510</v>
+      <c r="G24">
+        <f>IF(B24&gt;0,SUM(B24:E24),"")</f>
+        <v>385</v>
       </c>
       <c r="I24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J24" t="s">
         <v>157</v>
@@ -1512,15 +1506,12 @@
       <c r="E25">
         <v>100</v>
       </c>
-      <c r="F25">
-        <v>100</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="0"/>
-        <v>500</v>
+      <c r="G25">
+        <f>IF(B25&gt;0,SUM(B25:E25),"")</f>
+        <v>400</v>
       </c>
       <c r="I25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J25" t="s">
         <v>80</v>
@@ -1536,8 +1527,8 @@
       <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="H26" t="str">
-        <f t="shared" si="0"/>
+      <c r="G26" t="str">
+        <f>IF(B26&gt;0,SUM(B26:E26),"")</f>
         <v/>
       </c>
     </row>
@@ -1557,12 +1548,12 @@
       <c r="E27">
         <v>130</v>
       </c>
-      <c r="F27">
-        <v>120</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="0"/>
-        <v>510</v>
+      <c r="G27">
+        <f>IF(B27&gt;0,SUM(B27:E27),"")</f>
+        <v>390</v>
+      </c>
+      <c r="I27">
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -1581,12 +1572,12 @@
       <c r="E28">
         <v>80</v>
       </c>
-      <c r="F28">
-        <v>100</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="0"/>
-        <v>470</v>
+      <c r="G28">
+        <f>IF(B28&gt;0,SUM(B28:E28),"")</f>
+        <v>370</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
       </c>
       <c r="J28" t="s">
         <v>79</v>
@@ -1614,12 +1605,12 @@
       <c r="E29">
         <v>65</v>
       </c>
-      <c r="F29">
-        <v>95</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="0"/>
-        <v>475</v>
+      <c r="G29">
+        <f>IF(B29&gt;0,SUM(B29:E29),"")</f>
+        <v>380</v>
+      </c>
+      <c r="I29">
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1638,12 +1629,12 @@
       <c r="E30">
         <v>135</v>
       </c>
-      <c r="F30">
-        <v>110</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="0"/>
-        <v>490</v>
+      <c r="G30">
+        <f>IF(B30&gt;0,SUM(B30:E30),"")</f>
+        <v>380</v>
+      </c>
+      <c r="I30">
+        <v>6</v>
       </c>
       <c r="J30" t="s">
         <v>144</v>
@@ -1671,12 +1662,12 @@
       <c r="E31">
         <v>75</v>
       </c>
-      <c r="F31">
-        <v>65</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="0"/>
-        <v>500</v>
+      <c r="G31">
+        <f>IF(B31&gt;0,SUM(B31:E31),"")</f>
+        <v>435</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -1695,12 +1686,12 @@
       <c r="E32">
         <v>70</v>
       </c>
-      <c r="F32">
-        <v>120</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="0"/>
-        <v>495</v>
+      <c r="G32">
+        <f>IF(B32&gt;0,SUM(B32:E32),"")</f>
+        <v>375</v>
+      </c>
+      <c r="I32">
+        <v>6</v>
       </c>
       <c r="J32" t="s">
         <v>129</v>
@@ -1728,12 +1719,12 @@
       <c r="E33">
         <v>125</v>
       </c>
-      <c r="F33">
-        <v>140</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="0"/>
-        <v>485</v>
+      <c r="G33">
+        <f>IF(B33&gt;0,SUM(B33:E33),"")</f>
+        <v>345</v>
+      </c>
+      <c r="I33">
+        <v>7</v>
       </c>
       <c r="J33" t="s">
         <v>101</v>
@@ -1761,12 +1752,12 @@
       <c r="E34">
         <v>85</v>
       </c>
-      <c r="F34">
-        <v>85</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="0"/>
-        <v>475</v>
+      <c r="G34">
+        <f>IF(B34&gt;0,SUM(B34:E34),"")</f>
+        <v>390</v>
+      </c>
+      <c r="I34">
+        <v>4</v>
       </c>
       <c r="J34" t="s">
         <v>88</v>
@@ -1794,12 +1785,12 @@
       <c r="E35">
         <v>85</v>
       </c>
-      <c r="F35">
-        <v>75</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="0"/>
-        <v>470</v>
+      <c r="G35">
+        <f>IF(B35&gt;0,SUM(B35:E35),"")</f>
+        <v>395</v>
+      </c>
+      <c r="I35">
+        <v>4</v>
       </c>
       <c r="J35" t="s">
         <v>103</v>
@@ -1827,12 +1818,12 @@
       <c r="E36">
         <v>80</v>
       </c>
-      <c r="F36">
-        <v>95</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="0"/>
-        <v>465</v>
+      <c r="G36">
+        <f>IF(B36&gt;0,SUM(B36:E36),"")</f>
+        <v>370</v>
+      </c>
+      <c r="I36">
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -1851,12 +1842,12 @@
       <c r="E37">
         <v>110</v>
       </c>
-      <c r="F37">
-        <v>150</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="0"/>
-        <v>510</v>
+      <c r="G37">
+        <f>IF(B37&gt;0,SUM(B37:E37),"")</f>
+        <v>360</v>
+      </c>
+      <c r="I37">
+        <v>7</v>
       </c>
       <c r="J37" t="s">
         <v>109</v>
@@ -1884,12 +1875,12 @@
       <c r="E38">
         <v>105</v>
       </c>
-      <c r="F38">
-        <v>110</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="0"/>
-        <v>495</v>
+      <c r="G38">
+        <f>IF(B38&gt;0,SUM(B38:E38),"")</f>
+        <v>385</v>
+      </c>
+      <c r="I38">
+        <v>6</v>
       </c>
       <c r="J38" t="s">
         <v>92</v>
@@ -1917,12 +1908,12 @@
       <c r="E39">
         <v>85</v>
       </c>
-      <c r="F39">
-        <v>65</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="0"/>
-        <v>445</v>
+      <c r="G39">
+        <f>IF(B39&gt;0,SUM(B39:E39),"")</f>
+        <v>380</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
       </c>
       <c r="J39" t="s">
         <v>136</v>
@@ -1950,12 +1941,12 @@
       <c r="E40">
         <v>100</v>
       </c>
-      <c r="F40">
-        <v>105</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="0"/>
-        <v>495</v>
+      <c r="G40">
+        <f>IF(B40&gt;0,SUM(B40:E40),"")</f>
+        <v>390</v>
+      </c>
+      <c r="I40">
+        <v>5</v>
       </c>
       <c r="J40" t="s">
         <v>105</v>
@@ -1983,12 +1974,12 @@
       <c r="E41">
         <v>110</v>
       </c>
-      <c r="F41">
-        <v>140</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="0"/>
-        <v>510</v>
+      <c r="G41">
+        <f>IF(B41&gt;0,SUM(B41:E41),"")</f>
+        <v>370</v>
+      </c>
+      <c r="I41">
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -2007,12 +1998,9 @@
       <c r="E42">
         <v>80</v>
       </c>
-      <c r="F42">
-        <v>90</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="0"/>
-        <v>440</v>
+      <c r="G42">
+        <f>IF(B42&gt;0,SUM(B42:E42),"")</f>
+        <v>350</v>
       </c>
       <c r="I42">
         <v>5</v>
@@ -2043,12 +2031,9 @@
       <c r="E43">
         <v>95</v>
       </c>
-      <c r="F43">
-        <v>100</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="0"/>
-        <v>470</v>
+      <c r="G43">
+        <f>IF(B43&gt;0,SUM(B43:E43),"")</f>
+        <v>370</v>
       </c>
       <c r="I43">
         <v>5</v>
@@ -2079,23 +2064,20 @@
       <c r="E44">
         <v>60</v>
       </c>
-      <c r="F44">
-        <v>60</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="0"/>
-        <v>480</v>
+      <c r="G44">
+        <f>IF(B44&gt;0,SUM(B44:E44),"")</f>
+        <v>420</v>
       </c>
       <c r="I44">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-      <c r="H45" t="str">
-        <f t="shared" si="0"/>
+      <c r="G45" t="str">
+        <f>IF(B45&gt;0,SUM(B45:E45),"")</f>
         <v/>
       </c>
     </row>
@@ -2115,12 +2097,12 @@
       <c r="E46">
         <v>110</v>
       </c>
-      <c r="F46">
-        <v>100</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="0"/>
-        <v>505</v>
+      <c r="G46">
+        <f>IF(B46&gt;0,SUM(B46:E46),"")</f>
+        <v>405</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
       </c>
       <c r="J46" t="s">
         <v>161</v>
@@ -2148,20 +2130,20 @@
       <c r="E47">
         <v>90</v>
       </c>
-      <c r="F47">
-        <v>70</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="0"/>
-        <v>470</v>
+      <c r="G47">
+        <f>IF(B47&gt;0,SUM(B47:E47),"")</f>
+        <v>400</v>
+      </c>
+      <c r="I47">
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-      <c r="H48" t="str">
-        <f t="shared" si="0"/>
+      <c r="G48" t="str">
+        <f>IF(B48&gt;0,SUM(B48:E48),"")</f>
         <v/>
       </c>
     </row>
@@ -2181,12 +2163,12 @@
       <c r="E49">
         <v>115</v>
       </c>
-      <c r="F49">
-        <v>85</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="0"/>
-        <v>500</v>
+      <c r="G49">
+        <f>IF(B49&gt;0,SUM(B49:E49),"")</f>
+        <v>415</v>
+      </c>
+      <c r="I49">
+        <v>4</v>
       </c>
       <c r="J49" t="s">
         <v>76</v>
@@ -2214,12 +2196,12 @@
       <c r="E50">
         <v>120</v>
       </c>
-      <c r="F50">
-        <v>60</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="0"/>
-        <v>475</v>
+      <c r="G50">
+        <f>IF(B50&gt;0,SUM(B50:E50),"")</f>
+        <v>415</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
       </c>
       <c r="J50" t="s">
         <v>96</v>
@@ -2247,12 +2229,12 @@
       <c r="E51">
         <v>120</v>
       </c>
-      <c r="F51">
-        <v>100</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="0"/>
-        <v>495</v>
+      <c r="G51">
+        <f>IF(B51&gt;0,SUM(B51:E51),"")</f>
+        <v>395</v>
+      </c>
+      <c r="I51">
+        <v>5</v>
       </c>
       <c r="J51" t="s">
         <v>138</v>
@@ -2280,15 +2262,12 @@
       <c r="E52">
         <v>90</v>
       </c>
-      <c r="F52">
-        <v>100</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="0"/>
-        <v>490</v>
+      <c r="G52">
+        <f>IF(B52&gt;0,SUM(B52:E52),"")</f>
+        <v>390</v>
       </c>
       <c r="I52">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J52" t="s">
         <v>122</v>
@@ -2316,12 +2295,12 @@
       <c r="E53">
         <v>100</v>
       </c>
-      <c r="F53">
-        <v>85</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="0"/>
-        <v>505</v>
+      <c r="G53">
+        <f>IF(B53&gt;0,SUM(B53:E53),"")</f>
+        <v>420</v>
+      </c>
+      <c r="I53">
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -2340,15 +2319,12 @@
       <c r="E54">
         <v>85</v>
       </c>
-      <c r="F54">
-        <v>70</v>
-      </c>
-      <c r="H54">
-        <f t="shared" si="0"/>
-        <v>490</v>
+      <c r="G54">
+        <f>IF(B54&gt;0,SUM(B54:E54),"")</f>
+        <v>420</v>
       </c>
       <c r="I54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J54" t="s">
         <v>151</v>
@@ -2364,12 +2340,9 @@
       <c r="A55" t="s">
         <v>54</v>
       </c>
-      <c r="H55" t="str">
-        <f t="shared" si="0"/>
+      <c r="G55" t="str">
+        <f>IF(B55&gt;0,SUM(B55:E55),"")</f>
         <v/>
-      </c>
-      <c r="I55" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -2388,12 +2361,12 @@
       <c r="E56">
         <v>105</v>
       </c>
-      <c r="F56">
-        <v>105</v>
-      </c>
-      <c r="H56">
-        <f t="shared" si="0"/>
-        <v>500</v>
+      <c r="G56">
+        <f>IF(B56&gt;0,SUM(B56:E56),"")</f>
+        <v>395</v>
+      </c>
+      <c r="I56">
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -2412,15 +2385,12 @@
       <c r="E57">
         <v>95</v>
       </c>
-      <c r="F57">
-        <v>100</v>
-      </c>
-      <c r="H57">
-        <f t="shared" si="0"/>
-        <v>480</v>
+      <c r="G57">
+        <f>IF(B57&gt;0,SUM(B57:E57),"")</f>
+        <v>380</v>
       </c>
       <c r="I57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J57" t="s">
         <v>140</v>
@@ -2448,20 +2418,20 @@
       <c r="E58">
         <v>55</v>
       </c>
-      <c r="F58">
-        <v>50</v>
-      </c>
-      <c r="H58">
-        <f t="shared" si="0"/>
-        <v>445</v>
+      <c r="G58">
+        <f>IF(B58&gt;0,SUM(B58:E58),"")</f>
+        <v>395</v>
+      </c>
+      <c r="I58">
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-      <c r="H59" t="str">
-        <f t="shared" si="0"/>
+      <c r="G59" t="str">
+        <f>IF(B59&gt;0,SUM(B59:E59),"")</f>
         <v/>
       </c>
     </row>
@@ -2481,15 +2451,12 @@
       <c r="E60">
         <v>130</v>
       </c>
-      <c r="F60">
-        <v>100</v>
-      </c>
-      <c r="H60">
-        <f t="shared" si="0"/>
-        <v>465</v>
+      <c r="G60">
+        <f>IF(B60&gt;0,SUM(B60:E60),"")</f>
+        <v>365</v>
       </c>
       <c r="I60">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J60" t="s">
         <v>149</v>
@@ -2517,15 +2484,12 @@
       <c r="E61">
         <v>80</v>
       </c>
-      <c r="F61">
-        <v>80</v>
-      </c>
-      <c r="H61">
-        <f t="shared" si="0"/>
-        <v>470</v>
+      <c r="G61">
+        <f>IF(B61&gt;0,SUM(B61:E61),"")</f>
+        <v>390</v>
       </c>
       <c r="I61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J61" t="s">
         <v>94</v>
@@ -2553,15 +2517,12 @@
       <c r="E62">
         <v>120</v>
       </c>
-      <c r="F62">
-        <v>70</v>
-      </c>
-      <c r="H62">
-        <f t="shared" si="0"/>
-        <v>440</v>
+      <c r="G62">
+        <f>IF(B62&gt;0,SUM(B62:E62),"")</f>
+        <v>370</v>
       </c>
       <c r="I62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J62" t="s">
         <v>148</v>
@@ -2589,15 +2550,12 @@
       <c r="E63">
         <v>120</v>
       </c>
-      <c r="F63">
-        <v>80</v>
-      </c>
-      <c r="H63">
-        <f t="shared" si="0"/>
-        <v>470</v>
+      <c r="G63">
+        <f>IF(B63&gt;0,SUM(B63:E63),"")</f>
+        <v>390</v>
       </c>
       <c r="I63">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
@@ -2616,15 +2574,12 @@
       <c r="E64">
         <v>120</v>
       </c>
-      <c r="F64">
-        <v>120</v>
-      </c>
-      <c r="H64">
-        <f t="shared" si="0"/>
-        <v>490</v>
+      <c r="G64">
+        <f>IF(B64&gt;0,SUM(B64:E64),"")</f>
+        <v>370</v>
       </c>
       <c r="I64">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J64" t="s">
         <v>153</v>
@@ -2640,8 +2595,8 @@
       <c r="A65" t="s">
         <v>64</v>
       </c>
-      <c r="H65" t="str">
-        <f t="shared" si="0"/>
+      <c r="G65" t="str">
+        <f>IF(B65&gt;0,SUM(B65:E65),"")</f>
         <v/>
       </c>
     </row>
@@ -2661,15 +2616,12 @@
       <c r="E66">
         <v>85</v>
       </c>
-      <c r="F66">
-        <v>110</v>
-      </c>
-      <c r="H66">
-        <f t="shared" si="0"/>
-        <v>445</v>
+      <c r="G66">
+        <f>IF(B66&gt;0,SUM(B66:E66),"")</f>
+        <v>335</v>
       </c>
       <c r="I66">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J66" t="s">
         <v>146</v>
@@ -2697,12 +2649,9 @@
       <c r="E67">
         <v>80</v>
       </c>
-      <c r="F67">
-        <v>60</v>
-      </c>
-      <c r="H67">
-        <f t="shared" ref="H67:H72" si="1">IF(B67&gt;0,SUM(B67:F67),"")</f>
-        <v>470</v>
+      <c r="G67">
+        <f>IF(B67&gt;0,SUM(B67:E67),"")</f>
+        <v>410</v>
       </c>
       <c r="I67">
         <v>3</v>
@@ -2733,15 +2682,12 @@
       <c r="E68">
         <v>130</v>
       </c>
-      <c r="F68">
-        <v>80</v>
-      </c>
-      <c r="H68">
-        <f t="shared" si="1"/>
-        <v>480</v>
+      <c r="G68">
+        <f>IF(B68&gt;0,SUM(B68:E68),"")</f>
+        <v>400</v>
       </c>
       <c r="I68">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J68" t="s">
         <v>134</v>
@@ -2769,15 +2715,12 @@
       <c r="E69">
         <v>70</v>
       </c>
-      <c r="F69">
-        <v>85</v>
-      </c>
-      <c r="H69">
-        <f t="shared" si="1"/>
-        <v>485</v>
+      <c r="G69">
+        <f>IF(B69&gt;0,SUM(B69:E69),"")</f>
+        <v>400</v>
       </c>
       <c r="I69">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -2796,12 +2739,12 @@
       <c r="E70">
         <v>70</v>
       </c>
-      <c r="F70">
-        <v>60</v>
-      </c>
-      <c r="H70">
-        <f t="shared" si="1"/>
-        <v>480</v>
+      <c r="G70">
+        <f>IF(B70&gt;0,SUM(B70:E70),"")</f>
+        <v>420</v>
+      </c>
+      <c r="I70">
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -2820,12 +2763,12 @@
       <c r="E71">
         <v>120</v>
       </c>
-      <c r="F71">
-        <v>100</v>
-      </c>
-      <c r="H71">
-        <f t="shared" si="1"/>
-        <v>485</v>
+      <c r="G71">
+        <f>IF(B71&gt;0,SUM(B71:E71),"")</f>
+        <v>385</v>
+      </c>
+      <c r="I71">
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
@@ -2844,15 +2787,12 @@
       <c r="E72">
         <v>100</v>
       </c>
-      <c r="F72">
-        <v>130</v>
-      </c>
-      <c r="H72">
-        <f t="shared" si="1"/>
-        <v>485</v>
+      <c r="G72">
+        <f>IF(B72&gt;0,SUM(B72:E72),"")</f>
+        <v>355</v>
       </c>
       <c r="I72">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J72" t="s">
         <v>159</v>
@@ -2873,25 +2813,26 @@
         <v>95.877192982456137</v>
       </c>
       <c r="C76" s="2">
-        <f t="shared" ref="C76:H76" si="2">AVERAGE(C2:C72)</f>
+        <f t="shared" ref="C76:I76" si="0">AVERAGE(C2:C72)</f>
         <v>92.456140350877192</v>
       </c>
       <c r="D76" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>97.631578947368425</v>
       </c>
       <c r="E76" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>98.421052631578945</v>
       </c>
-      <c r="F76" s="2">
-        <f t="shared" si="2"/>
-        <v>93.94736842105263</v>
-      </c>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2">
-        <f t="shared" si="2"/>
-        <v>478.33333333333331</v>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2">
+        <f t="shared" si="0"/>
+        <v>384.38596491228071</v>
+      </c>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2">
+        <f t="shared" si="0"/>
+        <v>4.7719298245614032</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
@@ -2903,20 +2844,24 @@
         <v>150</v>
       </c>
       <c r="C77">
-        <f t="shared" ref="C77:F77" si="3">MAX(C2:C72)</f>
+        <f t="shared" ref="C77:E77" si="1">MAX(C2:C72)</f>
         <v>150</v>
       </c>
       <c r="D77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="E77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="F77">
-        <f t="shared" si="3"/>
-        <v>150</v>
+      <c r="G77">
+        <f>MAX(G2:G72)</f>
+        <v>435</v>
+      </c>
+      <c r="I77">
+        <f t="shared" ref="I77" si="2">MAX(I2:I72)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -2928,25 +2873,29 @@
         <v>50</v>
       </c>
       <c r="C78">
-        <f t="shared" ref="C78:F78" si="4">MIN(C2:C72)</f>
+        <f t="shared" ref="C78:E78" si="3">MIN(C2:C72)</f>
         <v>50</v>
       </c>
       <c r="D78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="E78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="F78">
-        <f t="shared" si="4"/>
-        <v>50</v>
+      <c r="G78">
+        <f>MIN(G2:G72)</f>
+        <v>280</v>
+      </c>
+      <c r="I78">
+        <f t="shared" ref="I78" si="4">MIN(I2:I72)</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:G1048576">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="G1:H1048576">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2958,6 +2907,2389 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:F1048576">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F78D61-D830-2644-85BF-423D5462D15F}">
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <f>VLOOKUP($A2, Stats!$A:$E, 2)</f>
+        <v>95</v>
+      </c>
+      <c r="E2">
+        <f>VLOOKUP($A2, Stats!$A:$E, 3)</f>
+        <v>70</v>
+      </c>
+      <c r="F2">
+        <f>VLOOKUP($A2, Stats!$A:$E, 4)</f>
+        <v>85</v>
+      </c>
+      <c r="G2">
+        <f>VLOOKUP($A2, Stats!$A:$E, 5)</f>
+        <v>110</v>
+      </c>
+      <c r="I2">
+        <f>120+(D2-100)*0.8</f>
+        <v>116</v>
+      </c>
+      <c r="J2">
+        <f>80+(E2-100)*0.8</f>
+        <v>56</v>
+      </c>
+      <c r="K2">
+        <f>160+(F2-100)*0.8</f>
+        <v>148</v>
+      </c>
+      <c r="L2">
+        <f>100+(G2-100)*0.8</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <f>VLOOKUP($A3, Stats!$A:$E, 2)</f>
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <f>VLOOKUP($A3, Stats!$A:$E, 3)</f>
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <f>VLOOKUP($A3, Stats!$A:$E, 4)</f>
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <f>VLOOKUP($A3, Stats!$A:$E, 5)</f>
+        <v>100</v>
+      </c>
+      <c r="I3">
+        <f>120+(D3-100)*0.8</f>
+        <v>120</v>
+      </c>
+      <c r="J3">
+        <f>80+(E3-100)*0.8</f>
+        <v>80</v>
+      </c>
+      <c r="K3">
+        <f>160+(F3-100)*0.8</f>
+        <v>160</v>
+      </c>
+      <c r="L3">
+        <f>100+(G3-100)*0.8</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12">
+        <f>F12-20*E12</f>
+        <v>40</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:D14" si="0">F13-20*E13</f>
+        <v>30</v>
+      </c>
+      <c r="E13">
+        <v>2.5</v>
+      </c>
+      <c r="F13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15">
+        <f>D12-D13</f>
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <f>F12-F13</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D16">
+        <f>D14/D15</f>
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <f>F14/F15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>120</v>
+      </c>
+      <c r="D19">
+        <v>135</v>
+      </c>
+      <c r="E19">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>80</v>
+      </c>
+      <c r="D20">
+        <v>70</v>
+      </c>
+      <c r="E20">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <f>C19-C20</f>
+        <v>40</v>
+      </c>
+      <c r="D21">
+        <f>D19-D20</f>
+        <v>65</v>
+      </c>
+      <c r="E21">
+        <f>E19-E20</f>
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4620289E-9FC9-A043-87AA-9007B3F5C30C}">
+  <dimension ref="A1:M78"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.5" customWidth="1"/>
+    <col min="9" max="9" width="2.83203125" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" customWidth="1"/>
+    <col min="13" max="13" width="78.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="str">
+        <f>IF(B2&gt;0,SUM(B2:F2),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="str">
+        <f>IF(B3&gt;0,SUM(B3:F3),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>80</v>
+      </c>
+      <c r="C4">
+        <v>70</v>
+      </c>
+      <c r="D4">
+        <v>75</v>
+      </c>
+      <c r="E4">
+        <v>110</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <f>IF(B4&gt;0,SUM(B4:F4),"")</f>
+        <v>435</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" t="str">
+        <f>IF(B5&gt;0,SUM(B5:F5),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>80</v>
+      </c>
+      <c r="E6">
+        <v>105</v>
+      </c>
+      <c r="F6">
+        <v>90</v>
+      </c>
+      <c r="H6">
+        <f>IF(B6&gt;0,SUM(B6:F6),"")</f>
+        <v>475</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>163</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" t="str">
+        <f>IF(B7&gt;0,SUM(B7:F7),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" t="str">
+        <f>IF(B8&gt;0,SUM(B8:F8),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>85</v>
+      </c>
+      <c r="C9">
+        <v>110</v>
+      </c>
+      <c r="D9">
+        <v>110</v>
+      </c>
+      <c r="E9">
+        <v>95</v>
+      </c>
+      <c r="F9">
+        <v>80</v>
+      </c>
+      <c r="H9">
+        <f>IF(B9&gt;0,SUM(B9:F9),"")</f>
+        <v>480</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9" t="s">
+        <v>127</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>55</v>
+      </c>
+      <c r="C10">
+        <v>65</v>
+      </c>
+      <c r="D10">
+        <v>70</v>
+      </c>
+      <c r="E10">
+        <v>90</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <f>IF(B10&gt;0,SUM(B10:F10),"")</f>
+        <v>380</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10" t="s">
+        <v>165</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" t="str">
+        <f>IF(B11&gt;0,SUM(B11:F11),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>75</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>130</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <v>90</v>
+      </c>
+      <c r="H12">
+        <f>IF(B12&gt;0,SUM(B12:F12),"")</f>
+        <v>495</v>
+      </c>
+      <c r="J12">
+        <v>6</v>
+      </c>
+      <c r="K12" t="s">
+        <v>99</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>95</v>
+      </c>
+      <c r="C13">
+        <v>75</v>
+      </c>
+      <c r="D13">
+        <v>80</v>
+      </c>
+      <c r="E13">
+        <v>150</v>
+      </c>
+      <c r="F13">
+        <v>110</v>
+      </c>
+      <c r="H13">
+        <f>IF(B13&gt;0,SUM(B13:F13),"")</f>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="str">
+        <f>IF(B14&gt;0,SUM(B14:F14),"")</f>
+        <v/>
+      </c>
+      <c r="K14" t="s">
+        <v>120</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="str">
+        <f>IF(B15&gt;0,SUM(B15:F15),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>95</v>
+      </c>
+      <c r="C16">
+        <v>85</v>
+      </c>
+      <c r="D16">
+        <v>105</v>
+      </c>
+      <c r="E16">
+        <v>80</v>
+      </c>
+      <c r="F16">
+        <v>80</v>
+      </c>
+      <c r="H16">
+        <f>IF(B16&gt;0,SUM(B16:F16),"")</f>
+        <v>445</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16" t="s">
+        <v>86</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>80</v>
+      </c>
+      <c r="C17">
+        <v>120</v>
+      </c>
+      <c r="D17">
+        <v>140</v>
+      </c>
+      <c r="E17">
+        <v>70</v>
+      </c>
+      <c r="F17">
+        <v>65</v>
+      </c>
+      <c r="H17">
+        <f>IF(B17&gt;0,SUM(B17:F17),"")</f>
+        <v>475</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="K17" t="s">
+        <v>142</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>70</v>
+      </c>
+      <c r="C18">
+        <v>120</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+      <c r="E18">
+        <v>115</v>
+      </c>
+      <c r="F18">
+        <v>85</v>
+      </c>
+      <c r="H18">
+        <f>IF(B18&gt;0,SUM(B18:F18),"")</f>
+        <v>490</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18" t="s">
+        <v>118</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>130</v>
+      </c>
+      <c r="C19">
+        <v>60</v>
+      </c>
+      <c r="D19">
+        <v>85</v>
+      </c>
+      <c r="E19">
+        <v>110</v>
+      </c>
+      <c r="F19">
+        <v>105</v>
+      </c>
+      <c r="H19">
+        <f>IF(B19&gt;0,SUM(B19:F19),"")</f>
+        <v>490</v>
+      </c>
+      <c r="J19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>105</v>
+      </c>
+      <c r="C20">
+        <v>75</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="E20">
+        <v>140</v>
+      </c>
+      <c r="F20">
+        <v>90</v>
+      </c>
+      <c r="H20">
+        <f>IF(B20&gt;0,SUM(B20:F20),"")</f>
+        <v>510</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>50</v>
+      </c>
+      <c r="C21">
+        <v>110</v>
+      </c>
+      <c r="D21">
+        <v>100</v>
+      </c>
+      <c r="E21">
+        <v>75</v>
+      </c>
+      <c r="F21">
+        <v>130</v>
+      </c>
+      <c r="H21">
+        <f>IF(B21&gt;0,SUM(B21:F21),"")</f>
+        <v>465</v>
+      </c>
+      <c r="K21" t="s">
+        <v>91</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>110</v>
+      </c>
+      <c r="C22">
+        <v>95</v>
+      </c>
+      <c r="D22">
+        <v>115</v>
+      </c>
+      <c r="E22">
+        <v>100</v>
+      </c>
+      <c r="F22">
+        <v>95</v>
+      </c>
+      <c r="H22">
+        <f>IF(B22&gt;0,SUM(B22:F22),"")</f>
+        <v>515</v>
+      </c>
+      <c r="K22" t="s">
+        <v>111</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>75</v>
+      </c>
+      <c r="C23">
+        <v>70</v>
+      </c>
+      <c r="D23">
+        <v>85</v>
+      </c>
+      <c r="E23">
+        <v>75</v>
+      </c>
+      <c r="F23">
+        <v>85</v>
+      </c>
+      <c r="H23">
+        <f>IF(B23&gt;0,SUM(B23:F23),"")</f>
+        <v>390</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+      <c r="K23" t="s">
+        <v>85</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>110</v>
+      </c>
+      <c r="C24">
+        <v>85</v>
+      </c>
+      <c r="D24">
+        <v>80</v>
+      </c>
+      <c r="E24">
+        <v>110</v>
+      </c>
+      <c r="F24">
+        <v>125</v>
+      </c>
+      <c r="H24">
+        <f>IF(B24&gt;0,SUM(B24:F24),"")</f>
+        <v>510</v>
+      </c>
+      <c r="J24">
+        <v>7</v>
+      </c>
+      <c r="K24" t="s">
+        <v>157</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>100</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+      <c r="D25">
+        <v>100</v>
+      </c>
+      <c r="E25">
+        <v>100</v>
+      </c>
+      <c r="F25">
+        <v>100</v>
+      </c>
+      <c r="H25">
+        <f>IF(B25&gt;0,SUM(B25:F25),"")</f>
+        <v>500</v>
+      </c>
+      <c r="J25">
+        <v>6</v>
+      </c>
+      <c r="K25" t="s">
+        <v>80</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" t="str">
+        <f>IF(B26&gt;0,SUM(B26:F26),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>105</v>
+      </c>
+      <c r="C27">
+        <v>75</v>
+      </c>
+      <c r="D27">
+        <v>80</v>
+      </c>
+      <c r="E27">
+        <v>130</v>
+      </c>
+      <c r="F27">
+        <v>120</v>
+      </c>
+      <c r="H27">
+        <f>IF(B27&gt;0,SUM(B27:F27),"")</f>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>110</v>
+      </c>
+      <c r="C28">
+        <v>70</v>
+      </c>
+      <c r="D28">
+        <v>110</v>
+      </c>
+      <c r="E28">
+        <v>80</v>
+      </c>
+      <c r="F28">
+        <v>100</v>
+      </c>
+      <c r="H28">
+        <f>IF(B28&gt;0,SUM(B28:F28),"")</f>
+        <v>470</v>
+      </c>
+      <c r="K28" t="s">
+        <v>79</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>100</v>
+      </c>
+      <c r="C29">
+        <v>105</v>
+      </c>
+      <c r="D29">
+        <v>110</v>
+      </c>
+      <c r="E29">
+        <v>65</v>
+      </c>
+      <c r="F29">
+        <v>95</v>
+      </c>
+      <c r="H29">
+        <f>IF(B29&gt;0,SUM(B29:F29),"")</f>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>110</v>
+      </c>
+      <c r="C30">
+        <v>65</v>
+      </c>
+      <c r="D30">
+        <v>70</v>
+      </c>
+      <c r="E30">
+        <v>135</v>
+      </c>
+      <c r="F30">
+        <v>110</v>
+      </c>
+      <c r="H30">
+        <f>IF(B30&gt;0,SUM(B30:F30),"")</f>
+        <v>490</v>
+      </c>
+      <c r="K30" t="s">
+        <v>144</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>120</v>
+      </c>
+      <c r="C31">
+        <v>110</v>
+      </c>
+      <c r="D31">
+        <v>130</v>
+      </c>
+      <c r="E31">
+        <v>75</v>
+      </c>
+      <c r="F31">
+        <v>65</v>
+      </c>
+      <c r="H31">
+        <f>IF(B31&gt;0,SUM(B31:F31),"")</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>80</v>
+      </c>
+      <c r="C32">
+        <v>125</v>
+      </c>
+      <c r="D32">
+        <v>100</v>
+      </c>
+      <c r="E32">
+        <v>70</v>
+      </c>
+      <c r="F32">
+        <v>120</v>
+      </c>
+      <c r="H32">
+        <f>IF(B32&gt;0,SUM(B32:F32),"")</f>
+        <v>495</v>
+      </c>
+      <c r="K32" t="s">
+        <v>129</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>85</v>
+      </c>
+      <c r="C33">
+        <v>75</v>
+      </c>
+      <c r="D33">
+        <v>60</v>
+      </c>
+      <c r="E33">
+        <v>125</v>
+      </c>
+      <c r="F33">
+        <v>140</v>
+      </c>
+      <c r="H33">
+        <f>IF(B33&gt;0,SUM(B33:F33),"")</f>
+        <v>485</v>
+      </c>
+      <c r="K33" t="s">
+        <v>101</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>105</v>
+      </c>
+      <c r="C34">
+        <v>105</v>
+      </c>
+      <c r="D34">
+        <v>95</v>
+      </c>
+      <c r="E34">
+        <v>85</v>
+      </c>
+      <c r="F34">
+        <v>85</v>
+      </c>
+      <c r="H34">
+        <f>IF(B34&gt;0,SUM(B34:F34),"")</f>
+        <v>475</v>
+      </c>
+      <c r="K34" t="s">
+        <v>88</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>90</v>
+      </c>
+      <c r="C35">
+        <v>100</v>
+      </c>
+      <c r="D35">
+        <v>120</v>
+      </c>
+      <c r="E35">
+        <v>85</v>
+      </c>
+      <c r="F35">
+        <v>75</v>
+      </c>
+      <c r="H35">
+        <f>IF(B35&gt;0,SUM(B35:F35),"")</f>
+        <v>470</v>
+      </c>
+      <c r="K35" t="s">
+        <v>103</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>75</v>
+      </c>
+      <c r="C36">
+        <v>120</v>
+      </c>
+      <c r="D36">
+        <v>95</v>
+      </c>
+      <c r="E36">
+        <v>80</v>
+      </c>
+      <c r="F36">
+        <v>95</v>
+      </c>
+      <c r="H36">
+        <f>IF(B36&gt;0,SUM(B36:F36),"")</f>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>95</v>
+      </c>
+      <c r="C37">
+        <v>70</v>
+      </c>
+      <c r="D37">
+        <v>85</v>
+      </c>
+      <c r="E37">
+        <v>110</v>
+      </c>
+      <c r="F37">
+        <v>150</v>
+      </c>
+      <c r="H37">
+        <f>IF(B37&gt;0,SUM(B37:F37),"")</f>
+        <v>510</v>
+      </c>
+      <c r="K37" t="s">
+        <v>109</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>120</v>
+      </c>
+      <c r="C38">
+        <v>80</v>
+      </c>
+      <c r="D38">
+        <v>80</v>
+      </c>
+      <c r="E38">
+        <v>105</v>
+      </c>
+      <c r="F38">
+        <v>110</v>
+      </c>
+      <c r="H38">
+        <f>IF(B38&gt;0,SUM(B38:F38),"")</f>
+        <v>495</v>
+      </c>
+      <c r="K38" t="s">
+        <v>92</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>95</v>
+      </c>
+      <c r="C39">
+        <v>100</v>
+      </c>
+      <c r="D39">
+        <v>100</v>
+      </c>
+      <c r="E39">
+        <v>85</v>
+      </c>
+      <c r="F39">
+        <v>65</v>
+      </c>
+      <c r="H39">
+        <f>IF(B39&gt;0,SUM(B39:F39),"")</f>
+        <v>445</v>
+      </c>
+      <c r="K39" t="s">
+        <v>136</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>115</v>
+      </c>
+      <c r="C40">
+        <v>75</v>
+      </c>
+      <c r="D40">
+        <v>100</v>
+      </c>
+      <c r="E40">
+        <v>100</v>
+      </c>
+      <c r="F40">
+        <v>105</v>
+      </c>
+      <c r="H40">
+        <f>IF(B40&gt;0,SUM(B40:F40),"")</f>
+        <v>495</v>
+      </c>
+      <c r="K40" t="s">
+        <v>105</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+      <c r="C41">
+        <v>60</v>
+      </c>
+      <c r="D41">
+        <v>70</v>
+      </c>
+      <c r="E41">
+        <v>110</v>
+      </c>
+      <c r="F41">
+        <v>140</v>
+      </c>
+      <c r="H41">
+        <f>IF(B41&gt;0,SUM(B41:F41),"")</f>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>70</v>
+      </c>
+      <c r="C42">
+        <v>80</v>
+      </c>
+      <c r="D42">
+        <v>120</v>
+      </c>
+      <c r="E42">
+        <v>80</v>
+      </c>
+      <c r="F42">
+        <v>90</v>
+      </c>
+      <c r="H42">
+        <f>IF(B42&gt;0,SUM(B42:F42),"")</f>
+        <v>440</v>
+      </c>
+      <c r="J42">
+        <v>5</v>
+      </c>
+      <c r="K42" t="s">
+        <v>155</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>90</v>
+      </c>
+      <c r="C43">
+        <v>95</v>
+      </c>
+      <c r="D43">
+        <v>90</v>
+      </c>
+      <c r="E43">
+        <v>95</v>
+      </c>
+      <c r="F43">
+        <v>100</v>
+      </c>
+      <c r="H43">
+        <f>IF(B43&gt;0,SUM(B43:F43),"")</f>
+        <v>470</v>
+      </c>
+      <c r="J43">
+        <v>5</v>
+      </c>
+      <c r="K43" t="s">
+        <v>125</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>120</v>
+      </c>
+      <c r="C44">
+        <v>120</v>
+      </c>
+      <c r="D44">
+        <v>120</v>
+      </c>
+      <c r="E44">
+        <v>60</v>
+      </c>
+      <c r="F44">
+        <v>60</v>
+      </c>
+      <c r="H44">
+        <f>IF(B44&gt;0,SUM(B44:F44),"")</f>
+        <v>480</v>
+      </c>
+      <c r="J44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="H45" t="str">
+        <f>IF(B45&gt;0,SUM(B45:F45),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>95</v>
+      </c>
+      <c r="C46">
+        <v>100</v>
+      </c>
+      <c r="D46">
+        <v>100</v>
+      </c>
+      <c r="E46">
+        <v>110</v>
+      </c>
+      <c r="F46">
+        <v>100</v>
+      </c>
+      <c r="H46">
+        <f>IF(B46&gt;0,SUM(B46:F46),"")</f>
+        <v>505</v>
+      </c>
+      <c r="K46" t="s">
+        <v>161</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>95</v>
+      </c>
+      <c r="C47">
+        <v>80</v>
+      </c>
+      <c r="D47">
+        <v>135</v>
+      </c>
+      <c r="E47">
+        <v>90</v>
+      </c>
+      <c r="F47">
+        <v>70</v>
+      </c>
+      <c r="H47">
+        <f>IF(B47&gt;0,SUM(B47:F47),"")</f>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="H48" t="str">
+        <f>IF(B48&gt;0,SUM(B48:F48),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>85</v>
+      </c>
+      <c r="C49">
+        <v>120</v>
+      </c>
+      <c r="D49">
+        <v>95</v>
+      </c>
+      <c r="E49">
+        <v>115</v>
+      </c>
+      <c r="F49">
+        <v>85</v>
+      </c>
+      <c r="H49">
+        <f>IF(B49&gt;0,SUM(B49:F49),"")</f>
+        <v>500</v>
+      </c>
+      <c r="K49" t="s">
+        <v>76</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>105</v>
+      </c>
+      <c r="C50">
+        <v>100</v>
+      </c>
+      <c r="D50">
+        <v>90</v>
+      </c>
+      <c r="E50">
+        <v>120</v>
+      </c>
+      <c r="F50">
+        <v>60</v>
+      </c>
+      <c r="H50">
+        <f>IF(B50&gt;0,SUM(B50:F50),"")</f>
+        <v>475</v>
+      </c>
+      <c r="K50" t="s">
+        <v>96</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>115</v>
+      </c>
+      <c r="C51">
+        <v>75</v>
+      </c>
+      <c r="D51">
+        <v>85</v>
+      </c>
+      <c r="E51">
+        <v>120</v>
+      </c>
+      <c r="F51">
+        <v>100</v>
+      </c>
+      <c r="H51">
+        <f>IF(B51&gt;0,SUM(B51:F51),"")</f>
+        <v>495</v>
+      </c>
+      <c r="K51" t="s">
+        <v>138</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>100</v>
+      </c>
+      <c r="C52">
+        <v>90</v>
+      </c>
+      <c r="D52">
+        <v>110</v>
+      </c>
+      <c r="E52">
+        <v>90</v>
+      </c>
+      <c r="F52">
+        <v>100</v>
+      </c>
+      <c r="H52">
+        <f>IF(B52&gt;0,SUM(B52:F52),"")</f>
+        <v>490</v>
+      </c>
+      <c r="J52">
+        <v>7</v>
+      </c>
+      <c r="K52" t="s">
+        <v>122</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>140</v>
+      </c>
+      <c r="C53">
+        <v>100</v>
+      </c>
+      <c r="D53">
+        <v>80</v>
+      </c>
+      <c r="E53">
+        <v>100</v>
+      </c>
+      <c r="F53">
+        <v>85</v>
+      </c>
+      <c r="H53">
+        <f>IF(B53&gt;0,SUM(B53:F53),"")</f>
+        <v>505</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>130</v>
+      </c>
+      <c r="C54">
+        <v>130</v>
+      </c>
+      <c r="D54">
+        <v>75</v>
+      </c>
+      <c r="E54">
+        <v>85</v>
+      </c>
+      <c r="F54">
+        <v>70</v>
+      </c>
+      <c r="H54">
+        <f>IF(B54&gt;0,SUM(B54:F54),"")</f>
+        <v>490</v>
+      </c>
+      <c r="J54">
+        <v>5</v>
+      </c>
+      <c r="K54" t="s">
+        <v>151</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="H55" t="str">
+        <f>IF(B55&gt;0,SUM(B55:F55),"")</f>
+        <v/>
+      </c>
+      <c r="J55" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>110</v>
+      </c>
+      <c r="C56">
+        <v>85</v>
+      </c>
+      <c r="D56">
+        <v>95</v>
+      </c>
+      <c r="E56">
+        <v>105</v>
+      </c>
+      <c r="F56">
+        <v>105</v>
+      </c>
+      <c r="H56">
+        <f>IF(B56&gt;0,SUM(B56:F56),"")</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>60</v>
+      </c>
+      <c r="C57">
+        <v>125</v>
+      </c>
+      <c r="D57">
+        <v>100</v>
+      </c>
+      <c r="E57">
+        <v>95</v>
+      </c>
+      <c r="F57">
+        <v>100</v>
+      </c>
+      <c r="H57">
+        <f>IF(B57&gt;0,SUM(B57:F57),"")</f>
+        <v>480</v>
+      </c>
+      <c r="J57">
+        <v>4</v>
+      </c>
+      <c r="K57" t="s">
+        <v>140</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>50</v>
+      </c>
+      <c r="C58">
+        <v>150</v>
+      </c>
+      <c r="D58">
+        <v>140</v>
+      </c>
+      <c r="E58">
+        <v>55</v>
+      </c>
+      <c r="F58">
+        <v>50</v>
+      </c>
+      <c r="H58">
+        <f>IF(B58&gt;0,SUM(B58:F58),"")</f>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="H59" t="str">
+        <f>IF(B59&gt;0,SUM(B59:F59),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>95</v>
+      </c>
+      <c r="C60">
+        <v>65</v>
+      </c>
+      <c r="D60">
+        <v>75</v>
+      </c>
+      <c r="E60">
+        <v>130</v>
+      </c>
+      <c r="F60">
+        <v>100</v>
+      </c>
+      <c r="H60">
+        <f>IF(B60&gt;0,SUM(B60:F60),"")</f>
+        <v>465</v>
+      </c>
+      <c r="J60">
+        <v>4</v>
+      </c>
+      <c r="K60" t="s">
+        <v>149</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>90</v>
+      </c>
+      <c r="C61">
+        <v>110</v>
+      </c>
+      <c r="D61">
+        <v>110</v>
+      </c>
+      <c r="E61">
+        <v>80</v>
+      </c>
+      <c r="F61">
+        <v>80</v>
+      </c>
+      <c r="H61">
+        <f>IF(B61&gt;0,SUM(B61:F61),"")</f>
+        <v>470</v>
+      </c>
+      <c r="J61">
+        <v>5</v>
+      </c>
+      <c r="K61" t="s">
+        <v>94</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>85</v>
+      </c>
+      <c r="C62">
+        <v>85</v>
+      </c>
+      <c r="D62">
+        <v>80</v>
+      </c>
+      <c r="E62">
+        <v>120</v>
+      </c>
+      <c r="F62">
+        <v>70</v>
+      </c>
+      <c r="H62">
+        <f>IF(B62&gt;0,SUM(B62:F62),"")</f>
+        <v>440</v>
+      </c>
+      <c r="J62">
+        <v>5</v>
+      </c>
+      <c r="K62" t="s">
+        <v>148</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>150</v>
+      </c>
+      <c r="C63">
+        <v>50</v>
+      </c>
+      <c r="D63">
+        <v>70</v>
+      </c>
+      <c r="E63">
+        <v>120</v>
+      </c>
+      <c r="F63">
+        <v>80</v>
+      </c>
+      <c r="H63">
+        <f>IF(B63&gt;0,SUM(B63:F63),"")</f>
+        <v>470</v>
+      </c>
+      <c r="J63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>100</v>
+      </c>
+      <c r="C64">
+        <v>70</v>
+      </c>
+      <c r="D64">
+        <v>80</v>
+      </c>
+      <c r="E64">
+        <v>120</v>
+      </c>
+      <c r="F64">
+        <v>120</v>
+      </c>
+      <c r="H64">
+        <f>IF(B64&gt;0,SUM(B64:F64),"")</f>
+        <v>490</v>
+      </c>
+      <c r="J64">
+        <v>7</v>
+      </c>
+      <c r="K64" t="s">
+        <v>153</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="H65" t="str">
+        <f>IF(B65&gt;0,SUM(B65:F65),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>70</v>
+      </c>
+      <c r="C66">
+        <v>95</v>
+      </c>
+      <c r="D66">
+        <v>85</v>
+      </c>
+      <c r="E66">
+        <v>85</v>
+      </c>
+      <c r="F66">
+        <v>110</v>
+      </c>
+      <c r="H66">
+        <f>IF(B66&gt;0,SUM(B66:F66),"")</f>
+        <v>445</v>
+      </c>
+      <c r="J66">
+        <v>5</v>
+      </c>
+      <c r="K66" t="s">
+        <v>146</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>60</v>
+      </c>
+      <c r="C67">
+        <v>150</v>
+      </c>
+      <c r="D67">
+        <v>120</v>
+      </c>
+      <c r="E67">
+        <v>80</v>
+      </c>
+      <c r="F67">
+        <v>60</v>
+      </c>
+      <c r="H67">
+        <f>IF(B67&gt;0,SUM(B67:F67),"")</f>
+        <v>470</v>
+      </c>
+      <c r="J67">
+        <v>3</v>
+      </c>
+      <c r="K67" t="s">
+        <v>107</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>70</v>
+      </c>
+      <c r="C68">
+        <v>100</v>
+      </c>
+      <c r="D68">
+        <v>100</v>
+      </c>
+      <c r="E68">
+        <v>130</v>
+      </c>
+      <c r="F68">
+        <v>80</v>
+      </c>
+      <c r="H68">
+        <f>IF(B68&gt;0,SUM(B68:F68),"")</f>
+        <v>480</v>
+      </c>
+      <c r="J68">
+        <v>6</v>
+      </c>
+      <c r="K68" t="s">
+        <v>134</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>110</v>
+      </c>
+      <c r="C69">
+        <v>80</v>
+      </c>
+      <c r="D69">
+        <v>140</v>
+      </c>
+      <c r="E69">
+        <v>70</v>
+      </c>
+      <c r="F69">
+        <v>85</v>
+      </c>
+      <c r="H69">
+        <f>IF(B69&gt;0,SUM(B69:F69),"")</f>
+        <v>485</v>
+      </c>
+      <c r="J69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>100</v>
+      </c>
+      <c r="C70">
+        <v>100</v>
+      </c>
+      <c r="D70">
+        <v>150</v>
+      </c>
+      <c r="E70">
+        <v>70</v>
+      </c>
+      <c r="F70">
+        <v>60</v>
+      </c>
+      <c r="H70">
+        <f>IF(B70&gt;0,SUM(B70:F70),"")</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>135</v>
+      </c>
+      <c r="C71">
+        <v>60</v>
+      </c>
+      <c r="D71">
+        <v>70</v>
+      </c>
+      <c r="E71">
+        <v>120</v>
+      </c>
+      <c r="F71">
+        <v>100</v>
+      </c>
+      <c r="H71">
+        <f>IF(B71&gt;0,SUM(B71:F71),"")</f>
+        <v>485</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>85</v>
+      </c>
+      <c r="C72">
+        <v>80</v>
+      </c>
+      <c r="D72">
+        <v>90</v>
+      </c>
+      <c r="E72">
+        <v>100</v>
+      </c>
+      <c r="F72">
+        <v>130</v>
+      </c>
+      <c r="H72">
+        <f>IF(B72&gt;0,SUM(B72:F72),"")</f>
+        <v>485</v>
+      </c>
+      <c r="J72">
+        <v>6</v>
+      </c>
+      <c r="K72" t="s">
+        <v>159</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B76" s="2">
+        <f>AVERAGE(B2:B72)</f>
+        <v>95.877192982456137</v>
+      </c>
+      <c r="C76" s="2">
+        <f t="shared" ref="C76:J76" si="0">AVERAGE(C2:C72)</f>
+        <v>92.456140350877192</v>
+      </c>
+      <c r="D76" s="2">
+        <f t="shared" si="0"/>
+        <v>97.631578947368425</v>
+      </c>
+      <c r="E76" s="2">
+        <f t="shared" si="0"/>
+        <v>98.421052631578945</v>
+      </c>
+      <c r="F76" s="2">
+        <f t="shared" si="0"/>
+        <v>93.94736842105263</v>
+      </c>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2">
+        <f t="shared" si="0"/>
+        <v>478.33333333333331</v>
+      </c>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2">
+        <f t="shared" si="0"/>
+        <v>5.2758620689655169</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B77">
+        <f>MAX(B2:B72)</f>
+        <v>150</v>
+      </c>
+      <c r="C77">
+        <f t="shared" ref="C77:F77" si="1">MAX(C2:C72)</f>
+        <v>150</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="J77">
+        <f t="shared" ref="J77" si="2">MAX(J2:J72)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B78">
+        <f>MIN(B2:B72)</f>
+        <v>50</v>
+      </c>
+      <c r="C78">
+        <f t="shared" ref="C78:F78" si="3">MIN(C2:C72)</f>
+        <v>50</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="J78">
+        <f t="shared" ref="J78" si="4">MIN(J2:J72)</f>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1:G1048576">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2969,7 +5301,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
+  <conditionalFormatting sqref="H1:I1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/stats2.xlsx
+++ b/stats2.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="480" windowWidth="28160" windowHeight="15940" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="28160" windowHeight="15940" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats" sheetId="1" r:id="rId1"/>
     <sheet name="Calculator" sheetId="2" r:id="rId2"/>
-    <sheet name="Old Stats" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="Old Stats" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="215">
   <si>
     <t>Name</t>
   </si>
@@ -560,6 +561,120 @@
   </si>
   <si>
     <t>BaseSkill</t>
+  </si>
+  <si>
+    <t>% damage (intuited)</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Can be like 1-2 HP.</t>
+  </si>
+  <si>
+    <t>Attacker Base Atk</t>
+  </si>
+  <si>
+    <t>Defender Base Def</t>
+  </si>
+  <si>
+    <t>Defender Base HP</t>
+  </si>
+  <si>
+    <t>Only the diffs between attack/def scores matter. Not the absolute values. So we don't want attack growth to outpace def growth.</t>
+  </si>
+  <si>
+    <t>Stat Mapper</t>
+  </si>
+  <si>
+    <t>Batk</t>
+  </si>
+  <si>
+    <t>Ratk</t>
+  </si>
+  <si>
+    <t>Bdef</t>
+  </si>
+  <si>
+    <t>Rdef</t>
+  </si>
+  <si>
+    <t>BHP</t>
+  </si>
+  <si>
+    <t>RHP</t>
+  </si>
+  <si>
+    <t>Damage%</t>
+  </si>
+  <si>
+    <t>NormLoss</t>
+  </si>
+  <si>
+    <t>HeavyLoss</t>
+  </si>
+  <si>
+    <t>BrutalLoss</t>
+  </si>
+  <si>
+    <t>LightLoss</t>
+  </si>
+  <si>
+    <t>TinyLoss</t>
+  </si>
+  <si>
+    <t>FORMULAE</t>
+  </si>
+  <si>
+    <t>Bskl</t>
+  </si>
+  <si>
+    <t>Rskl</t>
+  </si>
+  <si>
+    <t>Crit%</t>
+  </si>
+  <si>
+    <t>Attacker Base Skl</t>
+  </si>
+  <si>
+    <t>Defender Base Skl</t>
+  </si>
+  <si>
+    <t>% crit (intuited)</t>
+  </si>
+  <si>
+    <t>BSklAtkr</t>
+  </si>
+  <si>
+    <t>BSklDefr</t>
+  </si>
+  <si>
+    <t>% Crit</t>
+  </si>
+  <si>
+    <t>RSklAtkr</t>
+  </si>
+  <si>
+    <t>RSklDefr</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Gulf</t>
+  </si>
+  <si>
+    <t>Rdiff</t>
+  </si>
+  <si>
+    <t>Rdiff'</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>ExpectedDamage%</t>
   </si>
 </sst>
 </file>
@@ -569,7 +684,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -579,6 +694,13 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -603,16 +725,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -893,10 +1023,10 @@
   <dimension ref="A1:L78"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C37" sqref="C37"/>
+      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -946,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="str">
-        <f>IF(B2&gt;0,SUM(B2:E2),"")</f>
+        <f t="shared" ref="G2:G33" si="0">IF(B2&gt;0,SUM(B2:E2),"")</f>
         <v/>
       </c>
     </row>
@@ -955,7 +1085,7 @@
         <v>2</v>
       </c>
       <c r="G3" t="str">
-        <f>IF(B3&gt;0,SUM(B3:E3),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -976,7 +1106,7 @@
         <v>110</v>
       </c>
       <c r="G4">
-        <f>IF(B4&gt;0,SUM(B4:E4),"")</f>
+        <f t="shared" si="0"/>
         <v>335</v>
       </c>
       <c r="I4">
@@ -997,7 +1127,7 @@
         <v>4</v>
       </c>
       <c r="G5" t="str">
-        <f>IF(B5&gt;0,SUM(B5:E5),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1018,7 +1148,7 @@
         <v>105</v>
       </c>
       <c r="G6">
-        <f>IF(B6&gt;0,SUM(B6:E6),"")</f>
+        <f t="shared" si="0"/>
         <v>385</v>
       </c>
       <c r="I6">
@@ -1039,7 +1169,7 @@
         <v>6</v>
       </c>
       <c r="G7" t="str">
-        <f>IF(B7&gt;0,SUM(B7:E7),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1048,7 +1178,7 @@
         <v>7</v>
       </c>
       <c r="G8" t="str">
-        <f>IF(B8&gt;0,SUM(B8:E8),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1069,7 +1199,7 @@
         <v>95</v>
       </c>
       <c r="G9">
-        <f>IF(B9&gt;0,SUM(B9:E9),"")</f>
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
       <c r="I9">
@@ -1102,7 +1232,7 @@
         <v>90</v>
       </c>
       <c r="G10">
-        <f>IF(B10&gt;0,SUM(B10:E10),"")</f>
+        <f t="shared" si="0"/>
         <v>280</v>
       </c>
       <c r="I10">
@@ -1123,7 +1253,7 @@
         <v>10</v>
       </c>
       <c r="G11" t="str">
-        <f>IF(B11&gt;0,SUM(B11:E11),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1144,7 +1274,7 @@
         <v>100</v>
       </c>
       <c r="G12">
-        <f>IF(B12&gt;0,SUM(B12:E12),"")</f>
+        <f t="shared" si="0"/>
         <v>405</v>
       </c>
       <c r="I12">
@@ -1177,7 +1307,7 @@
         <v>150</v>
       </c>
       <c r="G13">
-        <f>IF(B13&gt;0,SUM(B13:E13),"")</f>
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
       <c r="I13">
@@ -1189,7 +1319,7 @@
         <v>13</v>
       </c>
       <c r="G14" t="str">
-        <f>IF(B14&gt;0,SUM(B14:E14),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J14" t="s">
@@ -1207,7 +1337,7 @@
         <v>14</v>
       </c>
       <c r="G15" t="str">
-        <f>IF(B15&gt;0,SUM(B15:E15),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1228,7 +1358,7 @@
         <v>80</v>
       </c>
       <c r="G16">
-        <f>IF(B16&gt;0,SUM(B16:E16),"")</f>
+        <f t="shared" si="0"/>
         <v>365</v>
       </c>
       <c r="I16">
@@ -1261,7 +1391,7 @@
         <v>70</v>
       </c>
       <c r="G17">
-        <f>IF(B17&gt;0,SUM(B17:E17),"")</f>
+        <f t="shared" si="0"/>
         <v>410</v>
       </c>
       <c r="I17">
@@ -1294,7 +1424,7 @@
         <v>115</v>
       </c>
       <c r="G18">
-        <f>IF(B18&gt;0,SUM(B18:E18),"")</f>
+        <f t="shared" si="0"/>
         <v>405</v>
       </c>
       <c r="I18">
@@ -1327,7 +1457,7 @@
         <v>110</v>
       </c>
       <c r="G19">
-        <f>IF(B19&gt;0,SUM(B19:E19),"")</f>
+        <f t="shared" si="0"/>
         <v>385</v>
       </c>
       <c r="I19">
@@ -1351,7 +1481,7 @@
         <v>140</v>
       </c>
       <c r="G20">
-        <f>IF(B20&gt;0,SUM(B20:E20),"")</f>
+        <f t="shared" si="0"/>
         <v>420</v>
       </c>
       <c r="I20">
@@ -1375,7 +1505,7 @@
         <v>75</v>
       </c>
       <c r="G21">
-        <f>IF(B21&gt;0,SUM(B21:E21),"")</f>
+        <f t="shared" si="0"/>
         <v>335</v>
       </c>
       <c r="I21">
@@ -1408,7 +1538,7 @@
         <v>100</v>
       </c>
       <c r="G22">
-        <f>IF(B22&gt;0,SUM(B22:E22),"")</f>
+        <f t="shared" si="0"/>
         <v>420</v>
       </c>
       <c r="I22">
@@ -1429,7 +1559,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C23">
         <v>70</v>
@@ -1441,8 +1571,8 @@
         <v>75</v>
       </c>
       <c r="G23">
-        <f>IF(B23&gt;0,SUM(B23:E23),"")</f>
-        <v>305</v>
+        <f t="shared" si="0"/>
+        <v>285</v>
       </c>
       <c r="I23">
         <v>4</v>
@@ -1471,11 +1601,11 @@
         <v>80</v>
       </c>
       <c r="E24">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G24">
-        <f>IF(B24&gt;0,SUM(B24:E24),"")</f>
-        <v>385</v>
+        <f t="shared" si="0"/>
+        <v>395</v>
       </c>
       <c r="I24">
         <v>6</v>
@@ -1507,7 +1637,7 @@
         <v>100</v>
       </c>
       <c r="G25">
-        <f>IF(B25&gt;0,SUM(B25:E25),"")</f>
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
       <c r="I25">
@@ -1528,7 +1658,7 @@
         <v>25</v>
       </c>
       <c r="G26" t="str">
-        <f>IF(B26&gt;0,SUM(B26:E26),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1549,7 +1679,7 @@
         <v>130</v>
       </c>
       <c r="G27">
-        <f>IF(B27&gt;0,SUM(B27:E27),"")</f>
+        <f t="shared" si="0"/>
         <v>390</v>
       </c>
       <c r="I27">
@@ -1573,7 +1703,7 @@
         <v>80</v>
       </c>
       <c r="G28">
-        <f>IF(B28&gt;0,SUM(B28:E28),"")</f>
+        <f t="shared" si="0"/>
         <v>370</v>
       </c>
       <c r="I28">
@@ -1606,7 +1736,7 @@
         <v>65</v>
       </c>
       <c r="G29">
-        <f>IF(B29&gt;0,SUM(B29:E29),"")</f>
+        <f t="shared" si="0"/>
         <v>380</v>
       </c>
       <c r="I29">
@@ -1630,7 +1760,7 @@
         <v>135</v>
       </c>
       <c r="G30">
-        <f>IF(B30&gt;0,SUM(B30:E30),"")</f>
+        <f t="shared" si="0"/>
         <v>380</v>
       </c>
       <c r="I30">
@@ -1663,7 +1793,7 @@
         <v>75</v>
       </c>
       <c r="G31">
-        <f>IF(B31&gt;0,SUM(B31:E31),"")</f>
+        <f t="shared" si="0"/>
         <v>435</v>
       </c>
       <c r="I31">
@@ -1687,7 +1817,7 @@
         <v>70</v>
       </c>
       <c r="G32">
-        <f>IF(B32&gt;0,SUM(B32:E32),"")</f>
+        <f t="shared" si="0"/>
         <v>375</v>
       </c>
       <c r="I32">
@@ -1720,7 +1850,7 @@
         <v>125</v>
       </c>
       <c r="G33">
-        <f>IF(B33&gt;0,SUM(B33:E33),"")</f>
+        <f t="shared" si="0"/>
         <v>345</v>
       </c>
       <c r="I33">
@@ -1753,7 +1883,7 @@
         <v>85</v>
       </c>
       <c r="G34">
-        <f>IF(B34&gt;0,SUM(B34:E34),"")</f>
+        <f t="shared" ref="G34:G65" si="1">IF(B34&gt;0,SUM(B34:E34),"")</f>
         <v>390</v>
       </c>
       <c r="I34">
@@ -1786,7 +1916,7 @@
         <v>85</v>
       </c>
       <c r="G35">
-        <f>IF(B35&gt;0,SUM(B35:E35),"")</f>
+        <f t="shared" si="1"/>
         <v>395</v>
       </c>
       <c r="I35">
@@ -1819,7 +1949,7 @@
         <v>80</v>
       </c>
       <c r="G36">
-        <f>IF(B36&gt;0,SUM(B36:E36),"")</f>
+        <f t="shared" si="1"/>
         <v>370</v>
       </c>
       <c r="I36">
@@ -1843,7 +1973,7 @@
         <v>110</v>
       </c>
       <c r="G37">
-        <f>IF(B37&gt;0,SUM(B37:E37),"")</f>
+        <f t="shared" si="1"/>
         <v>360</v>
       </c>
       <c r="I37">
@@ -1876,7 +2006,7 @@
         <v>105</v>
       </c>
       <c r="G38">
-        <f>IF(B38&gt;0,SUM(B38:E38),"")</f>
+        <f t="shared" si="1"/>
         <v>385</v>
       </c>
       <c r="I38">
@@ -1909,7 +2039,7 @@
         <v>85</v>
       </c>
       <c r="G39">
-        <f>IF(B39&gt;0,SUM(B39:E39),"")</f>
+        <f t="shared" si="1"/>
         <v>380</v>
       </c>
       <c r="I39">
@@ -1942,7 +2072,7 @@
         <v>100</v>
       </c>
       <c r="G40">
-        <f>IF(B40&gt;0,SUM(B40:E40),"")</f>
+        <f t="shared" si="1"/>
         <v>390</v>
       </c>
       <c r="I40">
@@ -1975,7 +2105,7 @@
         <v>110</v>
       </c>
       <c r="G41">
-        <f>IF(B41&gt;0,SUM(B41:E41),"")</f>
+        <f t="shared" si="1"/>
         <v>370</v>
       </c>
       <c r="I41">
@@ -1999,7 +2129,7 @@
         <v>80</v>
       </c>
       <c r="G42">
-        <f>IF(B42&gt;0,SUM(B42:E42),"")</f>
+        <f t="shared" si="1"/>
         <v>350</v>
       </c>
       <c r="I42">
@@ -2032,7 +2162,7 @@
         <v>95</v>
       </c>
       <c r="G43">
-        <f>IF(B43&gt;0,SUM(B43:E43),"")</f>
+        <f t="shared" si="1"/>
         <v>370</v>
       </c>
       <c r="I43">
@@ -2065,7 +2195,7 @@
         <v>60</v>
       </c>
       <c r="G44">
-        <f>IF(B44&gt;0,SUM(B44:E44),"")</f>
+        <f t="shared" si="1"/>
         <v>420</v>
       </c>
       <c r="I44">
@@ -2077,7 +2207,7 @@
         <v>44</v>
       </c>
       <c r="G45" t="str">
-        <f>IF(B45&gt;0,SUM(B45:E45),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2098,7 +2228,7 @@
         <v>110</v>
       </c>
       <c r="G46">
-        <f>IF(B46&gt;0,SUM(B46:E46),"")</f>
+        <f t="shared" si="1"/>
         <v>405</v>
       </c>
       <c r="I46">
@@ -2131,7 +2261,7 @@
         <v>90</v>
       </c>
       <c r="G47">
-        <f>IF(B47&gt;0,SUM(B47:E47),"")</f>
+        <f t="shared" si="1"/>
         <v>400</v>
       </c>
       <c r="I47">
@@ -2143,7 +2273,7 @@
         <v>47</v>
       </c>
       <c r="G48" t="str">
-        <f>IF(B48&gt;0,SUM(B48:E48),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2164,7 +2294,7 @@
         <v>115</v>
       </c>
       <c r="G49">
-        <f>IF(B49&gt;0,SUM(B49:E49),"")</f>
+        <f t="shared" si="1"/>
         <v>415</v>
       </c>
       <c r="I49">
@@ -2197,7 +2327,7 @@
         <v>120</v>
       </c>
       <c r="G50">
-        <f>IF(B50&gt;0,SUM(B50:E50),"")</f>
+        <f t="shared" si="1"/>
         <v>415</v>
       </c>
       <c r="I50">
@@ -2230,7 +2360,7 @@
         <v>120</v>
       </c>
       <c r="G51">
-        <f>IF(B51&gt;0,SUM(B51:E51),"")</f>
+        <f t="shared" si="1"/>
         <v>395</v>
       </c>
       <c r="I51">
@@ -2263,7 +2393,7 @@
         <v>90</v>
       </c>
       <c r="G52">
-        <f>IF(B52&gt;0,SUM(B52:E52),"")</f>
+        <f t="shared" si="1"/>
         <v>390</v>
       </c>
       <c r="I52">
@@ -2296,7 +2426,7 @@
         <v>100</v>
       </c>
       <c r="G53">
-        <f>IF(B53&gt;0,SUM(B53:E53),"")</f>
+        <f t="shared" si="1"/>
         <v>420</v>
       </c>
       <c r="I53">
@@ -2320,7 +2450,7 @@
         <v>85</v>
       </c>
       <c r="G54">
-        <f>IF(B54&gt;0,SUM(B54:E54),"")</f>
+        <f t="shared" si="1"/>
         <v>420</v>
       </c>
       <c r="I54">
@@ -2341,7 +2471,7 @@
         <v>54</v>
       </c>
       <c r="G55" t="str">
-        <f>IF(B55&gt;0,SUM(B55:E55),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2362,7 +2492,7 @@
         <v>105</v>
       </c>
       <c r="G56">
-        <f>IF(B56&gt;0,SUM(B56:E56),"")</f>
+        <f t="shared" si="1"/>
         <v>395</v>
       </c>
       <c r="I56">
@@ -2386,7 +2516,7 @@
         <v>95</v>
       </c>
       <c r="G57">
-        <f>IF(B57&gt;0,SUM(B57:E57),"")</f>
+        <f t="shared" si="1"/>
         <v>380</v>
       </c>
       <c r="I57">
@@ -2419,7 +2549,7 @@
         <v>55</v>
       </c>
       <c r="G58">
-        <f>IF(B58&gt;0,SUM(B58:E58),"")</f>
+        <f t="shared" si="1"/>
         <v>395</v>
       </c>
       <c r="I58">
@@ -2431,7 +2561,7 @@
         <v>58</v>
       </c>
       <c r="G59" t="str">
-        <f>IF(B59&gt;0,SUM(B59:E59),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2452,7 +2582,7 @@
         <v>130</v>
       </c>
       <c r="G60">
-        <f>IF(B60&gt;0,SUM(B60:E60),"")</f>
+        <f t="shared" si="1"/>
         <v>365</v>
       </c>
       <c r="I60">
@@ -2485,7 +2615,7 @@
         <v>80</v>
       </c>
       <c r="G61">
-        <f>IF(B61&gt;0,SUM(B61:E61),"")</f>
+        <f t="shared" si="1"/>
         <v>390</v>
       </c>
       <c r="I61">
@@ -2518,7 +2648,7 @@
         <v>120</v>
       </c>
       <c r="G62">
-        <f>IF(B62&gt;0,SUM(B62:E62),"")</f>
+        <f t="shared" si="1"/>
         <v>370</v>
       </c>
       <c r="I62">
@@ -2551,7 +2681,7 @@
         <v>120</v>
       </c>
       <c r="G63">
-        <f>IF(B63&gt;0,SUM(B63:E63),"")</f>
+        <f t="shared" si="1"/>
         <v>390</v>
       </c>
       <c r="I63">
@@ -2575,7 +2705,7 @@
         <v>120</v>
       </c>
       <c r="G64">
-        <f>IF(B64&gt;0,SUM(B64:E64),"")</f>
+        <f t="shared" si="1"/>
         <v>370</v>
       </c>
       <c r="I64">
@@ -2596,7 +2726,7 @@
         <v>64</v>
       </c>
       <c r="G65" t="str">
-        <f>IF(B65&gt;0,SUM(B65:E65),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2617,7 +2747,7 @@
         <v>85</v>
       </c>
       <c r="G66">
-        <f>IF(B66&gt;0,SUM(B66:E66),"")</f>
+        <f t="shared" ref="G66:G72" si="2">IF(B66&gt;0,SUM(B66:E66),"")</f>
         <v>335</v>
       </c>
       <c r="I66">
@@ -2650,7 +2780,7 @@
         <v>80</v>
       </c>
       <c r="G67">
-        <f>IF(B67&gt;0,SUM(B67:E67),"")</f>
+        <f t="shared" si="2"/>
         <v>410</v>
       </c>
       <c r="I67">
@@ -2683,7 +2813,7 @@
         <v>130</v>
       </c>
       <c r="G68">
-        <f>IF(B68&gt;0,SUM(B68:E68),"")</f>
+        <f t="shared" si="2"/>
         <v>400</v>
       </c>
       <c r="I68">
@@ -2716,7 +2846,7 @@
         <v>70</v>
       </c>
       <c r="G69">
-        <f>IF(B69&gt;0,SUM(B69:E69),"")</f>
+        <f t="shared" si="2"/>
         <v>400</v>
       </c>
       <c r="I69">
@@ -2740,7 +2870,7 @@
         <v>70</v>
       </c>
       <c r="G70">
-        <f>IF(B70&gt;0,SUM(B70:E70),"")</f>
+        <f t="shared" si="2"/>
         <v>420</v>
       </c>
       <c r="I70">
@@ -2764,7 +2894,7 @@
         <v>120</v>
       </c>
       <c r="G71">
-        <f>IF(B71&gt;0,SUM(B71:E71),"")</f>
+        <f t="shared" si="2"/>
         <v>385</v>
       </c>
       <c r="I71">
@@ -2788,7 +2918,7 @@
         <v>100</v>
       </c>
       <c r="G72">
-        <f>IF(B72&gt;0,SUM(B72:E72),"")</f>
+        <f t="shared" si="2"/>
         <v>355</v>
       </c>
       <c r="I72">
@@ -2810,28 +2940,28 @@
       </c>
       <c r="B76" s="2">
         <f>AVERAGE(B2:B72)</f>
-        <v>95.877192982456137</v>
+        <v>95.526315789473685</v>
       </c>
       <c r="C76" s="2">
-        <f t="shared" ref="C76:I76" si="0">AVERAGE(C2:C72)</f>
+        <f t="shared" ref="C76:I76" si="3">AVERAGE(C2:C72)</f>
         <v>92.456140350877192</v>
       </c>
       <c r="D76" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>97.631578947368425</v>
       </c>
       <c r="E76" s="2">
-        <f t="shared" si="0"/>
-        <v>98.421052631578945</v>
+        <f t="shared" si="3"/>
+        <v>98.596491228070178</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2">
-        <f t="shared" si="0"/>
-        <v>384.38596491228071</v>
+        <f t="shared" si="3"/>
+        <v>384.21052631578948</v>
       </c>
       <c r="H76" s="2"/>
       <c r="I76" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.7719298245614032</v>
       </c>
     </row>
@@ -2844,15 +2974,15 @@
         <v>150</v>
       </c>
       <c r="C77">
-        <f t="shared" ref="C77:E77" si="1">MAX(C2:C72)</f>
+        <f t="shared" ref="C77:E77" si="4">MAX(C2:C72)</f>
         <v>150</v>
       </c>
       <c r="D77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="E77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="G77">
@@ -2860,7 +2990,7 @@
         <v>435</v>
       </c>
       <c r="I77">
-        <f t="shared" ref="I77" si="2">MAX(I2:I72)</f>
+        <f t="shared" ref="I77" si="5">MAX(I2:I72)</f>
         <v>7</v>
       </c>
     </row>
@@ -2873,15 +3003,15 @@
         <v>50</v>
       </c>
       <c r="C78">
-        <f t="shared" ref="C78:E78" si="3">MIN(C2:C72)</f>
+        <f t="shared" ref="C78:E78" si="6">MIN(C2:C72)</f>
         <v>50</v>
       </c>
       <c r="D78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="E78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="G78">
@@ -2889,7 +3019,7 @@
         <v>280</v>
       </c>
       <c r="I78">
-        <f t="shared" ref="I78" si="4">MIN(I2:I72)</f>
+        <f t="shared" ref="I78" si="7">MIN(I2:I72)</f>
         <v>3</v>
       </c>
     </row>
@@ -2937,15 +3067,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F78D61-D830-2644-85BF-423D5462D15F}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="17" max="17" width="21.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>167</v>
       </c>
@@ -2976,88 +3109,137 @@
       <c r="L1" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="B2">
         <v>20</v>
       </c>
       <c r="D2">
         <f>VLOOKUP($A2, Stats!$A:$E, 2)</f>
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E2">
         <f>VLOOKUP($A2, Stats!$A:$E, 3)</f>
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F2">
         <f>VLOOKUP($A2, Stats!$A:$E, 4)</f>
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G2">
         <f>VLOOKUP($A2, Stats!$A:$E, 5)</f>
+        <v>120</v>
+      </c>
+      <c r="I2" s="7">
+        <f>100+(D2-100)*0.4</f>
+        <v>94</v>
+      </c>
+      <c r="J2" s="7">
+        <f>60+(E2-100)*0.4</f>
+        <v>54</v>
+      </c>
+      <c r="K2" s="7">
+        <f>140+(F2-100)*0.8</f>
+        <v>124</v>
+      </c>
+      <c r="L2" s="7">
+        <f>100+(G2-100)*0.5</f>
         <v>110</v>
       </c>
-      <c r="I2">
-        <f>120+(D2-100)*0.8</f>
-        <v>116</v>
-      </c>
-      <c r="J2">
-        <f>80+(E2-100)*0.8</f>
-        <v>56</v>
-      </c>
-      <c r="K2">
-        <f>160+(F2-100)*0.8</f>
-        <v>148</v>
-      </c>
-      <c r="L2">
-        <f>100+(G2-100)*0.8</f>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N2">
+        <f>I2-J3</f>
+        <v>50</v>
+      </c>
+      <c r="O2" s="4">
+        <f>N2/K3</f>
+        <v>0.390625</v>
+      </c>
+      <c r="P2" s="4">
+        <f>MAX((L2-L3)/2+6,0)/100</f>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="Q2" s="8">
+        <f>O2+P2*O2</f>
+        <v>0.423828125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
       <c r="D3">
         <f>VLOOKUP($A3, Stats!$A:$E, 2)</f>
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="E3">
         <f>VLOOKUP($A3, Stats!$A:$E, 3)</f>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F3">
         <f>VLOOKUP($A3, Stats!$A:$E, 4)</f>
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="G3">
         <f>VLOOKUP($A3, Stats!$A:$E, 5)</f>
-        <v>100</v>
-      </c>
-      <c r="I3">
-        <f>120+(D3-100)*0.8</f>
-        <v>120</v>
-      </c>
-      <c r="J3">
-        <f>80+(E3-100)*0.8</f>
-        <v>80</v>
-      </c>
-      <c r="K3">
-        <f>160+(F3-100)*0.8</f>
-        <v>160</v>
-      </c>
-      <c r="L3">
-        <f>100+(G3-100)*0.8</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="I3" s="7">
+        <f t="shared" ref="I3:I4" si="0">100+(D3-100)*0.4</f>
+        <v>112</v>
+      </c>
+      <c r="J3" s="7">
+        <f t="shared" ref="J3:J4" si="1">60+(E3-100)*0.4</f>
+        <v>44</v>
+      </c>
+      <c r="K3" s="7">
+        <f t="shared" ref="K3:K4" si="2">140+(F3-100)*0.8</f>
+        <v>128</v>
+      </c>
+      <c r="L3" s="7">
+        <f>100+(G3-100)*0.5</f>
+        <v>105</v>
+      </c>
+      <c r="N3">
+        <f>I3-J2</f>
+        <v>58</v>
+      </c>
+      <c r="O3" s="4">
+        <f>N3/K2</f>
+        <v>0.46774193548387094</v>
+      </c>
+      <c r="P3" s="8">
+        <f>MAX((L3-L2)/2+6,0)/100</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="Q3" s="8">
+        <f>O3+P3*O3</f>
+        <v>0.48411290322580641</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="P4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D11">
         <v>0</v>
       </c>
@@ -3067,8 +3249,14 @@
       <c r="F11">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K11" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>72</v>
       </c>
@@ -3082,13 +3270,54 @@
       <c r="F12">
         <v>120</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K12" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y12" s="1"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>73</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:D14" si="0">F13-20*E13</f>
+        <f t="shared" ref="D13:D14" si="3">F13-20*E13</f>
         <v>30</v>
       </c>
       <c r="E13">
@@ -3097,13 +3326,57 @@
       <c r="F13">
         <v>80</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K13">
+        <v>50</v>
+      </c>
+      <c r="L13">
+        <v>80</v>
+      </c>
+      <c r="M13">
+        <v>50</v>
+      </c>
+      <c r="N13">
+        <v>40</v>
+      </c>
+      <c r="O13">
+        <f>L13-N13</f>
+        <v>40</v>
+      </c>
+      <c r="Q13">
+        <v>50</v>
+      </c>
+      <c r="R13">
+        <f>100+(Q13-100)*0.4</f>
+        <v>80</v>
+      </c>
+      <c r="S13">
+        <v>50</v>
+      </c>
+      <c r="T13">
+        <f>60+(S13-100)*0.4</f>
+        <v>40</v>
+      </c>
+      <c r="U13">
+        <v>50</v>
+      </c>
+      <c r="V13">
+        <f>140+(U13-100)*0.8</f>
+        <v>100</v>
+      </c>
+      <c r="W13">
+        <v>50</v>
+      </c>
+      <c r="X13">
+        <f>100+(W13-100)*0.5</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>74</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="E14">
@@ -3112,8 +3385,52 @@
       <c r="F14">
         <v>160</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K14">
+        <v>75</v>
+      </c>
+      <c r="L14">
+        <v>90</v>
+      </c>
+      <c r="M14">
+        <v>75</v>
+      </c>
+      <c r="N14">
+        <v>50</v>
+      </c>
+      <c r="O14">
+        <f t="shared" ref="O14:O17" si="4">L14-N14</f>
+        <v>40</v>
+      </c>
+      <c r="Q14">
+        <v>75</v>
+      </c>
+      <c r="R14">
+        <f t="shared" ref="R14:R17" si="5">100+(Q14-100)*0.4</f>
+        <v>90</v>
+      </c>
+      <c r="S14">
+        <v>75</v>
+      </c>
+      <c r="T14">
+        <f t="shared" ref="T14:T17" si="6">60+(S14-100)*0.4</f>
+        <v>50</v>
+      </c>
+      <c r="U14">
+        <v>75</v>
+      </c>
+      <c r="V14">
+        <f t="shared" ref="V14:V17" si="7">140+(U14-100)*0.8</f>
+        <v>120</v>
+      </c>
+      <c r="W14">
+        <v>75</v>
+      </c>
+      <c r="X14">
+        <f t="shared" ref="X14:X17" si="8">100+(W14-100)*0.5</f>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>170</v>
       </c>
@@ -3125,8 +3442,52 @@
         <f>F12-F13</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K15">
+        <v>100</v>
+      </c>
+      <c r="L15">
+        <v>100</v>
+      </c>
+      <c r="M15">
+        <v>100</v>
+      </c>
+      <c r="N15">
+        <v>60</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="Q15">
+        <v>100</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="S15">
+        <v>100</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="U15">
+        <v>100</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="W15">
+        <v>100</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>171</v>
       </c>
@@ -3138,13 +3499,101 @@
         <f>F14/F15</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="K16">
+        <v>125</v>
+      </c>
+      <c r="L16">
+        <v>110</v>
+      </c>
+      <c r="M16">
+        <v>125</v>
+      </c>
+      <c r="N16">
+        <v>70</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="Q16">
+        <v>125</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="5"/>
+        <v>110</v>
+      </c>
+      <c r="S16">
+        <v>125</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="U16">
+        <v>125</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="7"/>
+        <v>160</v>
+      </c>
+      <c r="W16">
+        <v>125</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="8"/>
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="K17">
+        <v>150</v>
+      </c>
+      <c r="L17">
+        <v>120</v>
+      </c>
+      <c r="M17">
+        <v>150</v>
+      </c>
+      <c r="N17">
+        <v>80</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="Q17">
+        <v>150</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="S17">
+        <v>150</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="U17">
+        <v>150</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="7"/>
+        <v>180</v>
+      </c>
+      <c r="W17">
+        <v>150</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="8"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19">
         <v>120</v>
       </c>
@@ -3155,7 +3604,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20">
         <v>80</v>
       </c>
@@ -3165,8 +3614,29 @@
       <c r="E20">
         <v>95</v>
       </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="K20" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21">
         <f>C19-C20</f>
         <v>40</v>
@@ -3178,6 +3648,269 @@
       <c r="E21">
         <f>E19-E20</f>
         <v>10</v>
+      </c>
+      <c r="K21">
+        <v>50</v>
+      </c>
+      <c r="L21">
+        <v>100</v>
+      </c>
+      <c r="M21" s="4">
+        <f>$O$17/$L21</f>
+        <v>0.4</v>
+      </c>
+      <c r="N21" s="4">
+        <f>$O$17/$L21*5/4</f>
+        <v>0.5</v>
+      </c>
+      <c r="O21" s="4">
+        <f>$O$17/$L21*7/4</f>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="P21" s="4">
+        <f>$O$17/$L21*3/4</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="Q21" s="4">
+        <f>$O$17/$L21*1/4</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="K22">
+        <v>75</v>
+      </c>
+      <c r="L22">
+        <v>120</v>
+      </c>
+      <c r="M22" s="4">
+        <f t="shared" ref="M22:Q25" si="9">$O$17/$L22</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N22" s="4">
+        <f t="shared" ref="N22:N25" si="10">$O$17/$L22*5/4</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="O22" s="4">
+        <f t="shared" ref="O22:O25" si="11">$O$17/$L22*7/4</f>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="P22" s="4">
+        <f t="shared" ref="P22:P25" si="12">$O$17/$L22*3/4</f>
+        <v>0.25</v>
+      </c>
+      <c r="Q22" s="4">
+        <f t="shared" ref="Q22:Q25" si="13">$O$17/$L22*1/4</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="K23">
+        <v>100</v>
+      </c>
+      <c r="L23">
+        <v>140</v>
+      </c>
+      <c r="M23" s="4">
+        <f t="shared" si="9"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="N23" s="4">
+        <f t="shared" si="10"/>
+        <v>0.3571428571428571</v>
+      </c>
+      <c r="O23" s="4">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+      <c r="P23" s="4">
+        <f t="shared" si="12"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="Q23" s="4">
+        <f t="shared" si="13"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="K24">
+        <v>125</v>
+      </c>
+      <c r="L24">
+        <v>160</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" si="9"/>
+        <v>0.25</v>
+      </c>
+      <c r="N24" s="4">
+        <f t="shared" si="10"/>
+        <v>0.3125</v>
+      </c>
+      <c r="O24" s="4">
+        <f t="shared" si="11"/>
+        <v>0.4375</v>
+      </c>
+      <c r="P24" s="4">
+        <f t="shared" si="12"/>
+        <v>0.1875</v>
+      </c>
+      <c r="Q24" s="4">
+        <f t="shared" si="13"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="K25">
+        <v>150</v>
+      </c>
+      <c r="L25">
+        <v>180</v>
+      </c>
+      <c r="M25" s="4">
+        <f t="shared" si="9"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="N25" s="4">
+        <f t="shared" si="10"/>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="O25" s="4">
+        <f t="shared" si="11"/>
+        <v>0.38888888888888884</v>
+      </c>
+      <c r="P25" s="4">
+        <f t="shared" si="12"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Q25" s="4">
+        <f t="shared" si="13"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="K27" t="s">
+        <v>204</v>
+      </c>
+      <c r="L27" t="s">
+        <v>207</v>
+      </c>
+      <c r="M27" t="s">
+        <v>205</v>
+      </c>
+      <c r="N27" t="s">
+        <v>208</v>
+      </c>
+      <c r="O27" t="s">
+        <v>206</v>
+      </c>
+      <c r="P27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="K28">
+        <v>100</v>
+      </c>
+      <c r="L28">
+        <v>100</v>
+      </c>
+      <c r="M28">
+        <v>50</v>
+      </c>
+      <c r="N28">
+        <v>50</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="P28" s="6">
+        <f>MAX((L28-N28)/8+6,0)</f>
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="K29">
+        <v>100</v>
+      </c>
+      <c r="L29">
+        <v>100</v>
+      </c>
+      <c r="M29">
+        <v>75</v>
+      </c>
+      <c r="N29">
+        <v>75</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="P29" s="6">
+        <f t="shared" ref="P29:P31" si="14">MAX((L29-N29)/8+6,0)</f>
+        <v>9.125</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="K30">
+        <v>100</v>
+      </c>
+      <c r="L30">
+        <v>100</v>
+      </c>
+      <c r="M30">
+        <v>100</v>
+      </c>
+      <c r="N30">
+        <v>100</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="P30" s="6">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="K31">
+        <v>100</v>
+      </c>
+      <c r="L31">
+        <v>100</v>
+      </c>
+      <c r="M31">
+        <v>125</v>
+      </c>
+      <c r="N31">
+        <v>125</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="P31" s="6">
+        <f t="shared" si="14"/>
+        <v>2.875</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="K32">
+        <v>100</v>
+      </c>
+      <c r="L32">
+        <v>100</v>
+      </c>
+      <c r="M32">
+        <v>150</v>
+      </c>
+      <c r="N32">
+        <v>150</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="6">
+        <f>MAX((L32-N32)/8+6,0)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3187,6 +3920,501 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814FD987-7A47-2D49-9394-F1DF7A51FC34}">
+  <dimension ref="B1:L31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27:K30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" customWidth="1"/>
+    <col min="8" max="8" width="43.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>150</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>150</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="H4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>150</v>
+      </c>
+      <c r="C5">
+        <v>150</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="H5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>120</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7" s="5">
+        <v>100</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>120</v>
+      </c>
+      <c r="D8" s="5">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9" s="5">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10" s="5">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>150</v>
+      </c>
+      <c r="D11" s="5">
+        <v>100</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>150</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12" s="5">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>120</v>
+      </c>
+      <c r="C13">
+        <v>50</v>
+      </c>
+      <c r="D13" s="5">
+        <v>100</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>120</v>
+      </c>
+      <c r="D14" s="5">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>120</v>
+      </c>
+      <c r="C15">
+        <v>150</v>
+      </c>
+      <c r="D15" s="5">
+        <v>100</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>150</v>
+      </c>
+      <c r="C16">
+        <v>120</v>
+      </c>
+      <c r="D16" s="5">
+        <v>100</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I21" t="s">
+        <v>210</v>
+      </c>
+      <c r="J21" t="s">
+        <v>206</v>
+      </c>
+      <c r="K21" t="s">
+        <v>211</v>
+      </c>
+      <c r="L21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>100</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="I22">
+        <v>100</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="K22">
+        <v>50</v>
+      </c>
+      <c r="L22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>150</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="I23">
+        <v>75</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="K23">
+        <v>37.5</v>
+      </c>
+      <c r="L23">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>100</v>
+      </c>
+      <c r="C24">
+        <v>150</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>50</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="K24">
+        <v>25</v>
+      </c>
+      <c r="L24">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>50</v>
+      </c>
+      <c r="C25">
+        <v>150</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>25</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="K25">
+        <v>12.5</v>
+      </c>
+      <c r="L25">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>150</v>
+      </c>
+      <c r="C26">
+        <v>50</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>120</v>
+      </c>
+      <c r="C27">
+        <v>50</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="I27">
+        <v>-25</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>100</v>
+      </c>
+      <c r="C28">
+        <v>50</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="I28">
+        <v>-50</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>50</v>
+      </c>
+      <c r="C29">
+        <v>50</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="I29">
+        <v>-75</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>150</v>
+      </c>
+      <c r="C30">
+        <v>150</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="I30">
+        <v>-100</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1:D1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4620289E-9FC9-A043-87AA-9007B3F5C30C}">
   <dimension ref="A1:M78"/>
   <sheetViews>
@@ -3247,7 +4475,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="str">
-        <f>IF(B2&gt;0,SUM(B2:F2),"")</f>
+        <f t="shared" ref="H2:H33" si="0">IF(B2&gt;0,SUM(B2:F2),"")</f>
         <v/>
       </c>
     </row>
@@ -3256,7 +4484,7 @@
         <v>2</v>
       </c>
       <c r="H3" t="str">
-        <f>IF(B3&gt;0,SUM(B3:F3),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3280,7 +4508,7 @@
         <v>100</v>
       </c>
       <c r="H4">
-        <f>IF(B4&gt;0,SUM(B4:F4),"")</f>
+        <f t="shared" si="0"/>
         <v>435</v>
       </c>
       <c r="J4">
@@ -3301,7 +4529,7 @@
         <v>4</v>
       </c>
       <c r="H5" t="str">
-        <f>IF(B5&gt;0,SUM(B5:F5),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3325,7 +4553,7 @@
         <v>90</v>
       </c>
       <c r="H6">
-        <f>IF(B6&gt;0,SUM(B6:F6),"")</f>
+        <f t="shared" si="0"/>
         <v>475</v>
       </c>
       <c r="J6">
@@ -3346,7 +4574,7 @@
         <v>6</v>
       </c>
       <c r="H7" t="str">
-        <f>IF(B7&gt;0,SUM(B7:F7),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3355,7 +4583,7 @@
         <v>7</v>
       </c>
       <c r="H8" t="str">
-        <f>IF(B8&gt;0,SUM(B8:F8),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3379,7 +4607,7 @@
         <v>80</v>
       </c>
       <c r="H9">
-        <f>IF(B9&gt;0,SUM(B9:F9),"")</f>
+        <f t="shared" si="0"/>
         <v>480</v>
       </c>
       <c r="J9">
@@ -3415,7 +4643,7 @@
         <v>100</v>
       </c>
       <c r="H10">
-        <f>IF(B10&gt;0,SUM(B10:F10),"")</f>
+        <f t="shared" si="0"/>
         <v>380</v>
       </c>
       <c r="J10">
@@ -3436,7 +4664,7 @@
         <v>10</v>
       </c>
       <c r="H11" t="str">
-        <f>IF(B11&gt;0,SUM(B11:F11),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3460,7 +4688,7 @@
         <v>90</v>
       </c>
       <c r="H12">
-        <f>IF(B12&gt;0,SUM(B12:F12),"")</f>
+        <f t="shared" si="0"/>
         <v>495</v>
       </c>
       <c r="J12">
@@ -3496,7 +4724,7 @@
         <v>110</v>
       </c>
       <c r="H13">
-        <f>IF(B13&gt;0,SUM(B13:F13),"")</f>
+        <f t="shared" si="0"/>
         <v>510</v>
       </c>
     </row>
@@ -3505,7 +4733,7 @@
         <v>13</v>
       </c>
       <c r="H14" t="str">
-        <f>IF(B14&gt;0,SUM(B14:F14),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K14" t="s">
@@ -3523,7 +4751,7 @@
         <v>14</v>
       </c>
       <c r="H15" t="str">
-        <f>IF(B15&gt;0,SUM(B15:F15),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3547,7 +4775,7 @@
         <v>80</v>
       </c>
       <c r="H16">
-        <f>IF(B16&gt;0,SUM(B16:F16),"")</f>
+        <f t="shared" si="0"/>
         <v>445</v>
       </c>
       <c r="J16">
@@ -3583,7 +4811,7 @@
         <v>65</v>
       </c>
       <c r="H17">
-        <f>IF(B17&gt;0,SUM(B17:F17),"")</f>
+        <f t="shared" si="0"/>
         <v>475</v>
       </c>
       <c r="J17">
@@ -3619,7 +4847,7 @@
         <v>85</v>
       </c>
       <c r="H18">
-        <f>IF(B18&gt;0,SUM(B18:F18),"")</f>
+        <f t="shared" si="0"/>
         <v>490</v>
       </c>
       <c r="J18">
@@ -3655,7 +4883,7 @@
         <v>105</v>
       </c>
       <c r="H19">
-        <f>IF(B19&gt;0,SUM(B19:F19),"")</f>
+        <f t="shared" si="0"/>
         <v>490</v>
       </c>
       <c r="J19">
@@ -3682,7 +4910,7 @@
         <v>90</v>
       </c>
       <c r="H20">
-        <f>IF(B20&gt;0,SUM(B20:F20),"")</f>
+        <f t="shared" si="0"/>
         <v>510</v>
       </c>
       <c r="J20">
@@ -3709,7 +4937,7 @@
         <v>130</v>
       </c>
       <c r="H21">
-        <f>IF(B21&gt;0,SUM(B21:F21),"")</f>
+        <f t="shared" si="0"/>
         <v>465</v>
       </c>
       <c r="K21" t="s">
@@ -3742,7 +4970,7 @@
         <v>95</v>
       </c>
       <c r="H22">
-        <f>IF(B22&gt;0,SUM(B22:F22),"")</f>
+        <f t="shared" si="0"/>
         <v>515</v>
       </c>
       <c r="K22" t="s">
@@ -3775,7 +5003,7 @@
         <v>85</v>
       </c>
       <c r="H23">
-        <f>IF(B23&gt;0,SUM(B23:F23),"")</f>
+        <f t="shared" si="0"/>
         <v>390</v>
       </c>
       <c r="J23">
@@ -3811,7 +5039,7 @@
         <v>125</v>
       </c>
       <c r="H24">
-        <f>IF(B24&gt;0,SUM(B24:F24),"")</f>
+        <f t="shared" si="0"/>
         <v>510</v>
       </c>
       <c r="J24">
@@ -3847,7 +5075,7 @@
         <v>100</v>
       </c>
       <c r="H25">
-        <f>IF(B25&gt;0,SUM(B25:F25),"")</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="J25">
@@ -3868,7 +5096,7 @@
         <v>25</v>
       </c>
       <c r="H26" t="str">
-        <f>IF(B26&gt;0,SUM(B26:F26),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3892,7 +5120,7 @@
         <v>120</v>
       </c>
       <c r="H27">
-        <f>IF(B27&gt;0,SUM(B27:F27),"")</f>
+        <f t="shared" si="0"/>
         <v>510</v>
       </c>
     </row>
@@ -3916,7 +5144,7 @@
         <v>100</v>
       </c>
       <c r="H28">
-        <f>IF(B28&gt;0,SUM(B28:F28),"")</f>
+        <f t="shared" si="0"/>
         <v>470</v>
       </c>
       <c r="K28" t="s">
@@ -3949,7 +5177,7 @@
         <v>95</v>
       </c>
       <c r="H29">
-        <f>IF(B29&gt;0,SUM(B29:F29),"")</f>
+        <f t="shared" si="0"/>
         <v>475</v>
       </c>
     </row>
@@ -3973,7 +5201,7 @@
         <v>110</v>
       </c>
       <c r="H30">
-        <f>IF(B30&gt;0,SUM(B30:F30),"")</f>
+        <f t="shared" si="0"/>
         <v>490</v>
       </c>
       <c r="K30" t="s">
@@ -4006,7 +5234,7 @@
         <v>65</v>
       </c>
       <c r="H31">
-        <f>IF(B31&gt;0,SUM(B31:F31),"")</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
     </row>
@@ -4030,7 +5258,7 @@
         <v>120</v>
       </c>
       <c r="H32">
-        <f>IF(B32&gt;0,SUM(B32:F32),"")</f>
+        <f t="shared" si="0"/>
         <v>495</v>
       </c>
       <c r="K32" t="s">
@@ -4063,7 +5291,7 @@
         <v>140</v>
       </c>
       <c r="H33">
-        <f>IF(B33&gt;0,SUM(B33:F33),"")</f>
+        <f t="shared" si="0"/>
         <v>485</v>
       </c>
       <c r="K33" t="s">
@@ -4096,7 +5324,7 @@
         <v>85</v>
       </c>
       <c r="H34">
-        <f>IF(B34&gt;0,SUM(B34:F34),"")</f>
+        <f t="shared" ref="H34:H65" si="1">IF(B34&gt;0,SUM(B34:F34),"")</f>
         <v>475</v>
       </c>
       <c r="K34" t="s">
@@ -4129,7 +5357,7 @@
         <v>75</v>
       </c>
       <c r="H35">
-        <f>IF(B35&gt;0,SUM(B35:F35),"")</f>
+        <f t="shared" si="1"/>
         <v>470</v>
       </c>
       <c r="K35" t="s">
@@ -4162,7 +5390,7 @@
         <v>95</v>
       </c>
       <c r="H36">
-        <f>IF(B36&gt;0,SUM(B36:F36),"")</f>
+        <f t="shared" si="1"/>
         <v>465</v>
       </c>
     </row>
@@ -4186,7 +5414,7 @@
         <v>150</v>
       </c>
       <c r="H37">
-        <f>IF(B37&gt;0,SUM(B37:F37),"")</f>
+        <f t="shared" si="1"/>
         <v>510</v>
       </c>
       <c r="K37" t="s">
@@ -4219,7 +5447,7 @@
         <v>110</v>
       </c>
       <c r="H38">
-        <f>IF(B38&gt;0,SUM(B38:F38),"")</f>
+        <f t="shared" si="1"/>
         <v>495</v>
       </c>
       <c r="K38" t="s">
@@ -4252,7 +5480,7 @@
         <v>65</v>
       </c>
       <c r="H39">
-        <f>IF(B39&gt;0,SUM(B39:F39),"")</f>
+        <f t="shared" si="1"/>
         <v>445</v>
       </c>
       <c r="K39" t="s">
@@ -4285,7 +5513,7 @@
         <v>105</v>
       </c>
       <c r="H40">
-        <f>IF(B40&gt;0,SUM(B40:F40),"")</f>
+        <f t="shared" si="1"/>
         <v>495</v>
       </c>
       <c r="K40" t="s">
@@ -4318,7 +5546,7 @@
         <v>140</v>
       </c>
       <c r="H41">
-        <f>IF(B41&gt;0,SUM(B41:F41),"")</f>
+        <f t="shared" si="1"/>
         <v>510</v>
       </c>
     </row>
@@ -4342,7 +5570,7 @@
         <v>90</v>
       </c>
       <c r="H42">
-        <f>IF(B42&gt;0,SUM(B42:F42),"")</f>
+        <f t="shared" si="1"/>
         <v>440</v>
       </c>
       <c r="J42">
@@ -4378,7 +5606,7 @@
         <v>100</v>
       </c>
       <c r="H43">
-        <f>IF(B43&gt;0,SUM(B43:F43),"")</f>
+        <f t="shared" si="1"/>
         <v>470</v>
       </c>
       <c r="J43">
@@ -4414,7 +5642,7 @@
         <v>60</v>
       </c>
       <c r="H44">
-        <f>IF(B44&gt;0,SUM(B44:F44),"")</f>
+        <f t="shared" si="1"/>
         <v>480</v>
       </c>
       <c r="J44">
@@ -4426,7 +5654,7 @@
         <v>44</v>
       </c>
       <c r="H45" t="str">
-        <f>IF(B45&gt;0,SUM(B45:F45),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4450,7 +5678,7 @@
         <v>100</v>
       </c>
       <c r="H46">
-        <f>IF(B46&gt;0,SUM(B46:F46),"")</f>
+        <f t="shared" si="1"/>
         <v>505</v>
       </c>
       <c r="K46" t="s">
@@ -4483,7 +5711,7 @@
         <v>70</v>
       </c>
       <c r="H47">
-        <f>IF(B47&gt;0,SUM(B47:F47),"")</f>
+        <f t="shared" si="1"/>
         <v>470</v>
       </c>
     </row>
@@ -4492,7 +5720,7 @@
         <v>47</v>
       </c>
       <c r="H48" t="str">
-        <f>IF(B48&gt;0,SUM(B48:F48),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4516,7 +5744,7 @@
         <v>85</v>
       </c>
       <c r="H49">
-        <f>IF(B49&gt;0,SUM(B49:F49),"")</f>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
       <c r="K49" t="s">
@@ -4549,7 +5777,7 @@
         <v>60</v>
       </c>
       <c r="H50">
-        <f>IF(B50&gt;0,SUM(B50:F50),"")</f>
+        <f t="shared" si="1"/>
         <v>475</v>
       </c>
       <c r="K50" t="s">
@@ -4582,7 +5810,7 @@
         <v>100</v>
       </c>
       <c r="H51">
-        <f>IF(B51&gt;0,SUM(B51:F51),"")</f>
+        <f t="shared" si="1"/>
         <v>495</v>
       </c>
       <c r="K51" t="s">
@@ -4615,7 +5843,7 @@
         <v>100</v>
       </c>
       <c r="H52">
-        <f>IF(B52&gt;0,SUM(B52:F52),"")</f>
+        <f t="shared" si="1"/>
         <v>490</v>
       </c>
       <c r="J52">
@@ -4651,7 +5879,7 @@
         <v>85</v>
       </c>
       <c r="H53">
-        <f>IF(B53&gt;0,SUM(B53:F53),"")</f>
+        <f t="shared" si="1"/>
         <v>505</v>
       </c>
     </row>
@@ -4675,7 +5903,7 @@
         <v>70</v>
       </c>
       <c r="H54">
-        <f>IF(B54&gt;0,SUM(B54:F54),"")</f>
+        <f t="shared" si="1"/>
         <v>490</v>
       </c>
       <c r="J54">
@@ -4696,7 +5924,7 @@
         <v>54</v>
       </c>
       <c r="H55" t="str">
-        <f>IF(B55&gt;0,SUM(B55:F55),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J55" t="s">
@@ -4723,7 +5951,7 @@
         <v>105</v>
       </c>
       <c r="H56">
-        <f>IF(B56&gt;0,SUM(B56:F56),"")</f>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
     </row>
@@ -4747,7 +5975,7 @@
         <v>100</v>
       </c>
       <c r="H57">
-        <f>IF(B57&gt;0,SUM(B57:F57),"")</f>
+        <f t="shared" si="1"/>
         <v>480</v>
       </c>
       <c r="J57">
@@ -4783,7 +6011,7 @@
         <v>50</v>
       </c>
       <c r="H58">
-        <f>IF(B58&gt;0,SUM(B58:F58),"")</f>
+        <f t="shared" si="1"/>
         <v>445</v>
       </c>
     </row>
@@ -4792,7 +6020,7 @@
         <v>58</v>
       </c>
       <c r="H59" t="str">
-        <f>IF(B59&gt;0,SUM(B59:F59),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4816,7 +6044,7 @@
         <v>100</v>
       </c>
       <c r="H60">
-        <f>IF(B60&gt;0,SUM(B60:F60),"")</f>
+        <f t="shared" si="1"/>
         <v>465</v>
       </c>
       <c r="J60">
@@ -4852,7 +6080,7 @@
         <v>80</v>
       </c>
       <c r="H61">
-        <f>IF(B61&gt;0,SUM(B61:F61),"")</f>
+        <f t="shared" si="1"/>
         <v>470</v>
       </c>
       <c r="J61">
@@ -4888,7 +6116,7 @@
         <v>70</v>
       </c>
       <c r="H62">
-        <f>IF(B62&gt;0,SUM(B62:F62),"")</f>
+        <f t="shared" si="1"/>
         <v>440</v>
       </c>
       <c r="J62">
@@ -4924,7 +6152,7 @@
         <v>80</v>
       </c>
       <c r="H63">
-        <f>IF(B63&gt;0,SUM(B63:F63),"")</f>
+        <f t="shared" si="1"/>
         <v>470</v>
       </c>
       <c r="J63">
@@ -4951,7 +6179,7 @@
         <v>120</v>
       </c>
       <c r="H64">
-        <f>IF(B64&gt;0,SUM(B64:F64),"")</f>
+        <f t="shared" si="1"/>
         <v>490</v>
       </c>
       <c r="J64">
@@ -4972,7 +6200,7 @@
         <v>64</v>
       </c>
       <c r="H65" t="str">
-        <f>IF(B65&gt;0,SUM(B65:F65),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4996,7 +6224,7 @@
         <v>110</v>
       </c>
       <c r="H66">
-        <f>IF(B66&gt;0,SUM(B66:F66),"")</f>
+        <f t="shared" ref="H66:H72" si="2">IF(B66&gt;0,SUM(B66:F66),"")</f>
         <v>445</v>
       </c>
       <c r="J66">
@@ -5032,7 +6260,7 @@
         <v>60</v>
       </c>
       <c r="H67">
-        <f>IF(B67&gt;0,SUM(B67:F67),"")</f>
+        <f t="shared" si="2"/>
         <v>470</v>
       </c>
       <c r="J67">
@@ -5068,7 +6296,7 @@
         <v>80</v>
       </c>
       <c r="H68">
-        <f>IF(B68&gt;0,SUM(B68:F68),"")</f>
+        <f t="shared" si="2"/>
         <v>480</v>
       </c>
       <c r="J68">
@@ -5104,7 +6332,7 @@
         <v>85</v>
       </c>
       <c r="H69">
-        <f>IF(B69&gt;0,SUM(B69:F69),"")</f>
+        <f t="shared" si="2"/>
         <v>485</v>
       </c>
       <c r="J69">
@@ -5131,7 +6359,7 @@
         <v>60</v>
       </c>
       <c r="H70">
-        <f>IF(B70&gt;0,SUM(B70:F70),"")</f>
+        <f t="shared" si="2"/>
         <v>480</v>
       </c>
     </row>
@@ -5155,7 +6383,7 @@
         <v>100</v>
       </c>
       <c r="H71">
-        <f>IF(B71&gt;0,SUM(B71:F71),"")</f>
+        <f t="shared" si="2"/>
         <v>485</v>
       </c>
     </row>
@@ -5179,7 +6407,7 @@
         <v>130</v>
       </c>
       <c r="H72">
-        <f>IF(B72&gt;0,SUM(B72:F72),"")</f>
+        <f t="shared" si="2"/>
         <v>485</v>
       </c>
       <c r="J72">
@@ -5204,29 +6432,29 @@
         <v>95.877192982456137</v>
       </c>
       <c r="C76" s="2">
-        <f t="shared" ref="C76:J76" si="0">AVERAGE(C2:C72)</f>
+        <f t="shared" ref="C76:J76" si="3">AVERAGE(C2:C72)</f>
         <v>92.456140350877192</v>
       </c>
       <c r="D76" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>97.631578947368425</v>
       </c>
       <c r="E76" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>98.421052631578945</v>
       </c>
       <c r="F76" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>93.94736842105263</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>478.33333333333331</v>
       </c>
       <c r="I76" s="2"/>
       <c r="J76" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.2758620689655169</v>
       </c>
     </row>
@@ -5239,23 +6467,23 @@
         <v>150</v>
       </c>
       <c r="C77">
-        <f t="shared" ref="C77:F77" si="1">MAX(C2:C72)</f>
+        <f t="shared" ref="C77:F77" si="4">MAX(C2:C72)</f>
         <v>150</v>
       </c>
       <c r="D77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="E77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="F77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="J77">
-        <f t="shared" ref="J77" si="2">MAX(J2:J72)</f>
+        <f t="shared" ref="J77" si="5">MAX(J2:J72)</f>
         <v>7</v>
       </c>
     </row>
@@ -5268,23 +6496,23 @@
         <v>50</v>
       </c>
       <c r="C78">
-        <f t="shared" ref="C78:F78" si="3">MIN(C2:C72)</f>
+        <f t="shared" ref="C78:F78" si="6">MIN(C2:C72)</f>
         <v>50</v>
       </c>
       <c r="D78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="E78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="F78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="J78">
-        <f t="shared" ref="J78" si="4">MIN(J2:J72)</f>
+        <f t="shared" ref="J78" si="7">MIN(J2:J72)</f>
         <v>3</v>
       </c>
     </row>

--- a/stats2.xlsx
+++ b/stats2.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="460" windowWidth="28160" windowHeight="15940" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="440" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats" sheetId="1" r:id="rId1"/>
     <sheet name="Calculator" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="Crits" sheetId="6" r:id="rId3"/>
     <sheet name="Old Stats" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
@@ -29,8 +29,52 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Neel Mehta</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{A9DC0335-736F-8740-8C40-6E265C2BC139}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Neel Mehta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">problem: at low levels, each level means an ABSURD amount. it gets less stark as the levels grind onward.
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="219">
   <si>
     <t>Name</t>
   </si>
@@ -545,12 +589,6 @@
     <t>Damage</t>
   </si>
   <si>
-    <t>HKO</t>
-  </si>
-  <si>
-    <t>Up</t>
-  </si>
-  <si>
     <t>BaseAttack</t>
   </si>
   <si>
@@ -623,9 +661,6 @@
     <t>TinyLoss</t>
   </si>
   <si>
-    <t>FORMULAE</t>
-  </si>
-  <si>
     <t>Bskl</t>
   </si>
   <si>
@@ -662,19 +697,40 @@
     <t>Form</t>
   </si>
   <si>
-    <t>Gulf</t>
-  </si>
-  <si>
-    <t>Rdiff</t>
-  </si>
-  <si>
-    <t>Rdiff'</t>
-  </si>
-  <si>
     <t>`</t>
   </si>
   <si>
     <t>ExpectedDamage%</t>
+  </si>
+  <si>
+    <t>Lv0</t>
+  </si>
+  <si>
+    <t>FORMULAE - lv20</t>
+  </si>
+  <si>
+    <t>Base Gulf</t>
+  </si>
+  <si>
+    <t>Lv20 Real Gulf</t>
+  </si>
+  <si>
+    <t>Lv0 Real Gulf</t>
+  </si>
+  <si>
+    <t>By Formula (lv20)</t>
+  </si>
+  <si>
+    <t>By Formula (lv0)</t>
+  </si>
+  <si>
+    <t>lv10</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -684,7 +740,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -706,6 +762,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -729,7 +798,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -739,6 +808,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3066,11 +3136,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F78D61-D830-2644-85BF-423D5462D15F}">
-  <dimension ref="A1:Y32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F78D61-D830-2644-85BF-423D5462D15F}">
+  <dimension ref="A1:AG32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3078,7 +3148,7 @@
     <col min="17" max="17" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>167</v>
       </c>
@@ -3086,16 +3156,16 @@
         <v>168</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>72</v>
@@ -3113,21 +3183,21 @@
         <v>170</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>61</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <f>VLOOKUP($A2, Stats!$A:$E, 2)</f>
@@ -3146,186 +3216,212 @@
         <v>120</v>
       </c>
       <c r="I2" s="7">
-        <f>100+(D2-100)*0.4</f>
-        <v>94</v>
+        <f>(D$6+(D2-100)*D$5)*(20+$B2*4)/100</f>
+        <v>22.56</v>
       </c>
       <c r="J2" s="7">
-        <f>60+(E2-100)*0.4</f>
-        <v>54</v>
+        <f t="shared" ref="J2" si="0">(E$6+(E2-100)*E$5)*(20+$B2*4)/100</f>
+        <v>12.96</v>
       </c>
       <c r="K2" s="7">
-        <f>140+(F2-100)*0.8</f>
-        <v>124</v>
+        <f t="shared" ref="K2" si="1">(F$6+(F2-100)*F$5)*(20+$B2*4)/100</f>
+        <v>29.76</v>
       </c>
       <c r="L2" s="7">
-        <f>100+(G2-100)*0.5</f>
-        <v>110</v>
-      </c>
-      <c r="N2">
-        <f>I2-J3</f>
-        <v>50</v>
+        <f t="shared" ref="L2" si="2">(G$6+(G2-100)*G$5)*(20+$B2*4)/100</f>
+        <v>25.92</v>
+      </c>
+      <c r="N2" s="7">
+        <f>MAX(I2-J3,0)</f>
+        <v>8.1599999999999984</v>
       </c>
       <c r="O2" s="4">
         <f>N2/K3</f>
-        <v>0.390625</v>
+        <v>0.2428571428571428</v>
       </c>
       <c r="P2" s="4">
-        <f>MAX((L2-L3)/2+6,0)/100</f>
-        <v>8.5000000000000006E-2</v>
+        <f>MEDIAN((((L2-L3)*100/(20+4*B2))*0.6+6)/100,0,0.5)</f>
+        <v>0.10800000000000004</v>
       </c>
       <c r="Q2" s="8">
         <f>O2+P2*O2</f>
-        <v>0.423828125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+        <v>0.26908571428571421</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <f>VLOOKUP($A3, Stats!$A:$E, 2)</f>
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <f>VLOOKUP($A3, Stats!$A:$E, 3)</f>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F3">
         <f>VLOOKUP($A3, Stats!$A:$E, 4)</f>
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="G3">
         <f>VLOOKUP($A3, Stats!$A:$E, 5)</f>
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I3" s="7">
-        <f t="shared" ref="I3:I4" si="0">100+(D3-100)*0.4</f>
-        <v>112</v>
+        <f>(D$6+(D3-100)*D$5)*(20+$B3*4)/100</f>
+        <v>24</v>
       </c>
       <c r="J3" s="7">
-        <f t="shared" ref="J3:J4" si="1">60+(E3-100)*0.4</f>
-        <v>44</v>
+        <f t="shared" ref="J3:L3" si="3">(E$6+(E3-100)*E$5)*(20+$B3*4)/100</f>
+        <v>14.4</v>
       </c>
       <c r="K3" s="7">
-        <f t="shared" ref="K3:K4" si="2">140+(F3-100)*0.8</f>
-        <v>128</v>
+        <f t="shared" si="3"/>
+        <v>33.6</v>
       </c>
       <c r="L3" s="7">
-        <f>100+(G3-100)*0.5</f>
-        <v>105</v>
-      </c>
-      <c r="N3">
-        <f>I3-J2</f>
-        <v>58</v>
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="N3" s="7">
+        <f>MAX(I3-J2,0)</f>
+        <v>11.04</v>
       </c>
       <c r="O3" s="4">
         <f>N3/K2</f>
-        <v>0.46774193548387094</v>
-      </c>
-      <c r="P3" s="8">
-        <f>MAX((L3-L2)/2+6,0)/100</f>
-        <v>3.5000000000000003E-2</v>
+        <v>0.37096774193548382</v>
+      </c>
+      <c r="P3" s="4">
+        <f>MEDIAN((((L3-L2)*100/(20+4*B3))*0.6+6)/100,0,0.5)</f>
+        <v>1.1999999999999957E-2</v>
       </c>
       <c r="Q3" s="8">
         <f>O3+P3*O3</f>
-        <v>0.48411290322580641</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+        <v>0.37541935483870958</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="P4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>172</v>
-      </c>
-      <c r="F11">
-        <v>20</v>
-      </c>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5">
+        <v>0.4</v>
+      </c>
+      <c r="E5">
+        <v>0.4</v>
+      </c>
+      <c r="F5">
+        <v>0.8</v>
+      </c>
+      <c r="G5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>60</v>
+      </c>
+      <c r="F6">
+        <v>140</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="K11" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="K12" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="Q11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12">
-        <f>F12-20*E12</f>
-        <v>40</v>
-      </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-      <c r="F12">
-        <v>120</v>
-      </c>
-      <c r="K12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>170</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="S12" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="T12" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="U12" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="V12" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="U12" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="W12" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Y12" s="1"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13">
-        <f t="shared" ref="D13:D14" si="3">F13-20*E13</f>
-        <v>30</v>
-      </c>
-      <c r="E13">
-        <v>2.5</v>
-      </c>
-      <c r="F13">
-        <v>80</v>
-      </c>
+      <c r="Z12" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="K13">
         <v>50</v>
       </c>
@@ -3367,24 +3463,39 @@
         <v>50</v>
       </c>
       <c r="X13">
-        <f>100+(W13-100)*0.5</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="E14">
-        <v>6</v>
-      </c>
-      <c r="F14">
-        <v>160</v>
-      </c>
+        <f>100+(W13-100)*0.4</f>
+        <v>80</v>
+      </c>
+      <c r="Z13">
+        <v>50</v>
+      </c>
+      <c r="AA13">
+        <f>R13/5</f>
+        <v>16</v>
+      </c>
+      <c r="AB13">
+        <v>50</v>
+      </c>
+      <c r="AC13">
+        <f>T13/5</f>
+        <v>8</v>
+      </c>
+      <c r="AD13">
+        <v>50</v>
+      </c>
+      <c r="AE13">
+        <f>V13/5</f>
+        <v>20</v>
+      </c>
+      <c r="AF13">
+        <v>50</v>
+      </c>
+      <c r="AG13">
+        <f>X13/5</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="K14">
         <v>75</v>
       </c>
@@ -3426,22 +3537,39 @@
         <v>75</v>
       </c>
       <c r="X14">
-        <f t="shared" ref="X14:X17" si="8">100+(W14-100)*0.5</f>
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>170</v>
-      </c>
-      <c r="D15">
-        <f>D12-D13</f>
+        <f t="shared" ref="X14:X17" si="8">100+(W14-100)*0.4</f>
+        <v>90</v>
+      </c>
+      <c r="Z14">
+        <v>75</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" ref="AA14:AG17" si="9">R14/5</f>
+        <v>18</v>
+      </c>
+      <c r="AB14">
+        <v>75</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="F15">
-        <f>F12-F13</f>
-        <v>40</v>
-      </c>
+      <c r="AD14">
+        <v>75</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="AF14">
+        <v>75</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="K15">
         <v>100</v>
       </c>
@@ -3486,19 +3614,36 @@
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>171</v>
-      </c>
-      <c r="D16">
-        <f>D14/D15</f>
-        <v>4</v>
-      </c>
-      <c r="F16">
-        <f>F14/F15</f>
-        <v>4</v>
-      </c>
+      <c r="Z15">
+        <v>100</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="AB15">
+        <v>100</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="AD15">
+        <v>100</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="AF15">
+        <v>100</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="K16">
         <v>125</v>
       </c>
@@ -3541,13 +3686,38 @@
       </c>
       <c r="X16">
         <f t="shared" si="8"/>
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
-      <c r="D17" t="s">
-        <v>133</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="Z16">
+        <v>125</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
+      <c r="AB16">
+        <v>125</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="AD16">
+        <v>125</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="9"/>
+        <v>32</v>
+      </c>
+      <c r="AF16">
+        <v>125</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="11:33" x14ac:dyDescent="0.2">
       <c r="K17">
         <v>150</v>
       </c>
@@ -3590,65 +3760,61 @@
       </c>
       <c r="X17">
         <f t="shared" si="8"/>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
-      <c r="C19">
         <v>120</v>
       </c>
-      <c r="D19">
-        <v>135</v>
-      </c>
-      <c r="E19">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
-      <c r="C20">
-        <v>80</v>
-      </c>
-      <c r="D20">
-        <v>70</v>
-      </c>
-      <c r="E20">
-        <v>95</v>
-      </c>
+      <c r="Z17">
+        <v>150</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="AB17">
+        <v>150</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="AD17">
+        <v>150</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="AF17">
+        <v>150</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="11:33" x14ac:dyDescent="0.2">
       <c r="K20" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L20" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="N20" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="P20" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="Q20" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="P20" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
-      <c r="C21">
-        <f>C19-C20</f>
-        <v>40</v>
-      </c>
-      <c r="D21">
-        <f>D19-D20</f>
-        <v>65</v>
-      </c>
-      <c r="E21">
-        <f>E19-E20</f>
-        <v>10</v>
-      </c>
+    </row>
+    <row r="21" spans="11:33" x14ac:dyDescent="0.2">
       <c r="K21">
         <v>50</v>
       </c>
@@ -3676,7 +3842,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="11:33" x14ac:dyDescent="0.2">
       <c r="K22">
         <v>75</v>
       </c>
@@ -3684,27 +3850,27 @@
         <v>120</v>
       </c>
       <c r="M22" s="4">
-        <f t="shared" ref="M22:Q25" si="9">$O$17/$L22</f>
+        <f t="shared" ref="M22:M25" si="10">$O$17/$L22</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="N22" s="4">
-        <f t="shared" ref="N22:N25" si="10">$O$17/$L22*5/4</f>
+        <f t="shared" ref="N22:N25" si="11">$O$17/$L22*5/4</f>
         <v>0.41666666666666663</v>
       </c>
       <c r="O22" s="4">
-        <f t="shared" ref="O22:O25" si="11">$O$17/$L22*7/4</f>
+        <f t="shared" ref="O22:O25" si="12">$O$17/$L22*7/4</f>
         <v>0.58333333333333326</v>
       </c>
       <c r="P22" s="4">
-        <f t="shared" ref="P22:P25" si="12">$O$17/$L22*3/4</f>
+        <f t="shared" ref="P22:P25" si="13">$O$17/$L22*3/4</f>
         <v>0.25</v>
       </c>
       <c r="Q22" s="4">
-        <f t="shared" ref="Q22:Q25" si="13">$O$17/$L22*1/4</f>
+        <f t="shared" ref="Q22:Q25" si="14">$O$17/$L22*1/4</f>
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="11:33" x14ac:dyDescent="0.2">
       <c r="K23">
         <v>100</v>
       </c>
@@ -3712,27 +3878,27 @@
         <v>140</v>
       </c>
       <c r="M23" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="N23" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.3571428571428571</v>
       </c>
       <c r="O23" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="P23" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.21428571428571427</v>
       </c>
       <c r="Q23" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="11:33" x14ac:dyDescent="0.2">
       <c r="K24">
         <v>125</v>
       </c>
@@ -3740,27 +3906,27 @@
         <v>160</v>
       </c>
       <c r="M24" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.25</v>
       </c>
       <c r="N24" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.3125</v>
       </c>
       <c r="O24" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.4375</v>
       </c>
       <c r="P24" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.1875</v>
       </c>
       <c r="Q24" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="11:33" x14ac:dyDescent="0.2">
       <c r="K25">
         <v>150</v>
       </c>
@@ -3768,47 +3934,47 @@
         <v>180</v>
       </c>
       <c r="M25" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.22222222222222221</v>
       </c>
       <c r="N25" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.27777777777777779</v>
       </c>
       <c r="O25" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.38888888888888884</v>
       </c>
       <c r="P25" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="Q25" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="11:33" x14ac:dyDescent="0.2">
       <c r="K27" t="s">
+        <v>201</v>
+      </c>
+      <c r="L27" t="s">
         <v>204</v>
       </c>
-      <c r="L27" t="s">
-        <v>207</v>
-      </c>
       <c r="M27" t="s">
+        <v>202</v>
+      </c>
+      <c r="N27" t="s">
         <v>205</v>
       </c>
-      <c r="N27" t="s">
-        <v>208</v>
-      </c>
       <c r="O27" t="s">
+        <v>203</v>
+      </c>
+      <c r="P27" t="s">
         <v>206</v>
       </c>
-      <c r="P27" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="11:33" x14ac:dyDescent="0.2">
       <c r="K28">
         <v>100</v>
       </c>
@@ -3829,7 +3995,7 @@
         <v>12.25</v>
       </c>
     </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="11:33" x14ac:dyDescent="0.2">
       <c r="K29">
         <v>100</v>
       </c>
@@ -3846,11 +4012,11 @@
         <v>0.09</v>
       </c>
       <c r="P29" s="6">
-        <f t="shared" ref="P29:P31" si="14">MAX((L29-N29)/8+6,0)</f>
+        <f t="shared" ref="P29:P31" si="15">MAX((L29-N29)/8+6,0)</f>
         <v>9.125</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="11:33" x14ac:dyDescent="0.2">
       <c r="K30">
         <v>100</v>
       </c>
@@ -3867,11 +4033,11 @@
         <v>0.06</v>
       </c>
       <c r="P30" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="11:33" x14ac:dyDescent="0.2">
       <c r="K31">
         <v>100</v>
       </c>
@@ -3888,11 +4054,11 @@
         <v>0.03</v>
       </c>
       <c r="P31" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.875</v>
       </c>
     </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="11:33" x14ac:dyDescent="0.2">
       <c r="K32">
         <v>100</v>
       </c>
@@ -3916,15 +4082,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814FD987-7A47-2D49-9394-F1DF7A51FC34}">
-  <dimension ref="B1:L31"/>
+  <dimension ref="B1:Q40"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27:K30"/>
+    <sheetView topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3935,23 +4102,24 @@
     <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.1640625" customWidth="1"/>
     <col min="8" max="8" width="43.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
@@ -3999,7 +4167,7 @@
       </c>
       <c r="F4" s="3"/>
       <c r="H4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
@@ -4017,7 +4185,7 @@
       </c>
       <c r="F5" s="3"/>
       <c r="H5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
@@ -4184,31 +4352,43 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I21" t="s">
+        <v>211</v>
+      </c>
+      <c r="J21" t="s">
         <v>203</v>
       </c>
-      <c r="I21" t="s">
-        <v>210</v>
-      </c>
-      <c r="J21" t="s">
-        <v>206</v>
-      </c>
       <c r="K21" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L21" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+      <c r="M21" t="s">
+        <v>216</v>
+      </c>
+      <c r="N21" t="s">
+        <v>214</v>
+      </c>
+      <c r="O21" t="s">
+        <v>215</v>
+      </c>
+      <c r="P21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>100</v>
       </c>
@@ -4224,14 +4404,31 @@
       <c r="J22" s="4">
         <v>0.3</v>
       </c>
-      <c r="K22">
-        <v>50</v>
+      <c r="K22" s="9">
+        <v>40</v>
       </c>
       <c r="L22">
+        <f>K22/4</f>
+        <v>10</v>
+      </c>
+      <c r="M22" s="6">
+        <f>(K22-L22)*10/20+L22</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N22">
+        <f>K22*0.6+6</f>
+        <v>30</v>
+      </c>
+      <c r="O22">
+        <f>L22*(20-0)/5*0.6+6</f>
+        <v>30</v>
+      </c>
+      <c r="P22">
+        <f>(M22*80/(20+3*10))*0.6+6</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>150</v>
       </c>
@@ -4247,14 +4444,31 @@
       <c r="J23" s="4">
         <v>0.24</v>
       </c>
-      <c r="K23">
-        <v>37.5</v>
+      <c r="K23" s="9">
+        <v>30</v>
       </c>
       <c r="L23">
+        <f t="shared" ref="L23:L26" si="0">K23/4</f>
+        <v>7.5</v>
+      </c>
+      <c r="M23" s="6">
+        <f t="shared" ref="M23:M26" si="1">(K23-L23)*10/20+L23</f>
         <v>18.75</v>
       </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N23">
+        <f t="shared" ref="N23:N26" si="2">K23*0.6+6</f>
+        <v>24</v>
+      </c>
+      <c r="O23">
+        <f t="shared" ref="O23:P26" si="3">L23*(20-0)/5*0.6+6</f>
+        <v>24</v>
+      </c>
+      <c r="P23">
+        <f t="shared" ref="P23:P26" si="4">(M23*80/(20+3*10))*0.6+6</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>100</v>
       </c>
@@ -4270,14 +4484,31 @@
       <c r="J24" s="4">
         <v>0.18</v>
       </c>
-      <c r="K24">
-        <v>25</v>
+      <c r="K24" s="9">
+        <v>20</v>
       </c>
       <c r="L24">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M24" s="6">
+        <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N24">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>50</v>
       </c>
@@ -4293,14 +4524,31 @@
       <c r="J25" s="4">
         <v>0.12</v>
       </c>
-      <c r="K25">
-        <v>12.5</v>
+      <c r="K25" s="9">
+        <v>10</v>
       </c>
       <c r="L25">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="M25" s="6">
+        <f t="shared" si="1"/>
         <v>6.25</v>
       </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N25">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>150</v>
       </c>
@@ -4316,14 +4564,31 @@
       <c r="J26" s="4">
         <v>0.06</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="9">
         <v>0</v>
       </c>
       <c r="L26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>120</v>
       </c>
@@ -4339,8 +4604,9 @@
       <c r="J27" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>100</v>
       </c>
@@ -4356,8 +4622,9 @@
       <c r="J28" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>50</v>
       </c>
@@ -4373,8 +4640,9 @@
       <c r="J29" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>150</v>
       </c>
@@ -4390,10 +4658,91 @@
       <c r="J30" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="I31" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="14:17" x14ac:dyDescent="0.2">
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>20</v>
+      </c>
+      <c r="P36">
+        <f>100/O36</f>
+        <v>5</v>
+      </c>
+      <c r="Q36">
+        <f>100/(20+N36*4)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="14:17" x14ac:dyDescent="0.2">
+      <c r="N37">
+        <v>10</v>
+      </c>
+      <c r="O37">
+        <v>60</v>
+      </c>
+      <c r="P37">
+        <f t="shared" ref="P37:P40" si="5">100/O37</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" ref="Q37:Q40" si="6">100/(20+N37*4)</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="38" spans="14:17" x14ac:dyDescent="0.2">
+      <c r="N38">
+        <v>20</v>
+      </c>
+      <c r="O38">
+        <v>100</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="14:17" x14ac:dyDescent="0.2">
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>24</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="5"/>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="6"/>
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="40" spans="14:17" x14ac:dyDescent="0.2">
+      <c r="N40">
+        <v>19</v>
+      </c>
+      <c r="O40">
+        <v>96</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="5"/>
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="6"/>
+        <v>1.0416666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/stats2.xlsx
+++ b/stats2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="440" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats" sheetId="1" r:id="rId1"/>
@@ -29,52 +29,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Neel Mehta</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{A9DC0335-736F-8740-8C40-6E265C2BC139}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Neel Mehta:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">problem: at low levels, each level means an ABSURD amount. it gets less stark as the levels grind onward.
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="204">
   <si>
     <t>Name</t>
   </si>
@@ -601,72 +557,9 @@
     <t>BaseSkill</t>
   </si>
   <si>
-    <t>% damage (intuited)</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Can be like 1-2 HP.</t>
-  </si>
-  <si>
-    <t>Attacker Base Atk</t>
-  </si>
-  <si>
-    <t>Defender Base Def</t>
-  </si>
-  <si>
-    <t>Defender Base HP</t>
-  </si>
-  <si>
-    <t>Only the diffs between attack/def scores matter. Not the absolute values. So we don't want attack growth to outpace def growth.</t>
-  </si>
-  <si>
-    <t>Stat Mapper</t>
-  </si>
-  <si>
-    <t>Batk</t>
-  </si>
-  <si>
-    <t>Ratk</t>
-  </si>
-  <si>
-    <t>Bdef</t>
-  </si>
-  <si>
-    <t>Rdef</t>
-  </si>
-  <si>
-    <t>BHP</t>
-  </si>
-  <si>
-    <t>RHP</t>
-  </si>
-  <si>
     <t>Damage%</t>
   </si>
   <si>
-    <t>NormLoss</t>
-  </si>
-  <si>
-    <t>HeavyLoss</t>
-  </si>
-  <si>
-    <t>BrutalLoss</t>
-  </si>
-  <si>
-    <t>LightLoss</t>
-  </si>
-  <si>
-    <t>TinyLoss</t>
-  </si>
-  <si>
-    <t>Bskl</t>
-  </si>
-  <si>
-    <t>Rskl</t>
-  </si>
-  <si>
     <t>Crit%</t>
   </si>
   <si>
@@ -679,36 +572,15 @@
     <t>% crit (intuited)</t>
   </si>
   <si>
-    <t>BSklAtkr</t>
-  </si>
-  <si>
-    <t>BSklDefr</t>
-  </si>
-  <si>
     <t>% Crit</t>
   </si>
   <si>
-    <t>RSklAtkr</t>
-  </si>
-  <si>
-    <t>RSklDefr</t>
-  </si>
-  <si>
-    <t>Form</t>
-  </si>
-  <si>
     <t>`</t>
   </si>
   <si>
     <t>ExpectedDamage%</t>
   </si>
   <si>
-    <t>Lv0</t>
-  </si>
-  <si>
-    <t>FORMULAE - lv20</t>
-  </si>
-  <si>
     <t>Base Gulf</t>
   </si>
   <si>
@@ -731,6 +603,45 @@
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>lv0 as frac of lv20</t>
+  </si>
+  <si>
+    <t>divide</t>
+  </si>
+  <si>
+    <t>Attacker Base</t>
+  </si>
+  <si>
+    <t>Defender Base</t>
+  </si>
+  <si>
+    <t>Attacker Real 20</t>
+  </si>
+  <si>
+    <t>Defender Real 20</t>
+  </si>
+  <si>
+    <t>Divide</t>
+  </si>
+  <si>
+    <t>Crit %</t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t>Form 2</t>
+  </si>
+  <si>
+    <t>Bamboomerang</t>
+  </si>
+  <si>
+    <t>Attacks strike twice.</t>
+  </si>
+  <si>
+    <t>Boosts movement, attack, defense in the sun.</t>
   </si>
 </sst>
 </file>
@@ -740,7 +651,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -762,19 +673,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -798,13 +696,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1093,10 +990,10 @@
   <dimension ref="A1:L78"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
+      <selection pane="bottomRight" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1485,10 +1382,10 @@
         <v>70</v>
       </c>
       <c r="C18">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D18">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E18">
         <v>115</v>
@@ -2106,11 +2003,11 @@
         <v>100</v>
       </c>
       <c r="E39">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G39">
         <f t="shared" si="1"/>
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="I39">
         <v>3</v>
@@ -2122,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="s">
-        <v>137</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -2276,9 +2173,33 @@
       <c r="A45" t="s">
         <v>44</v>
       </c>
-      <c r="G45" t="str">
+      <c r="B45">
+        <v>80</v>
+      </c>
+      <c r="C45">
+        <v>70</v>
+      </c>
+      <c r="D45">
+        <v>75</v>
+      </c>
+      <c r="E45">
+        <v>110</v>
+      </c>
+      <c r="G45">
         <f t="shared" si="1"/>
-        <v/>
+        <v>335</v>
+      </c>
+      <c r="I45">
+        <v>4</v>
+      </c>
+      <c r="J45" t="s">
+        <v>201</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -2540,9 +2461,24 @@
       <c r="A55" t="s">
         <v>54</v>
       </c>
-      <c r="G55" t="str">
+      <c r="B55">
+        <v>125</v>
+      </c>
+      <c r="C55">
+        <v>50</v>
+      </c>
+      <c r="D55">
+        <v>115</v>
+      </c>
+      <c r="E55">
+        <v>110</v>
+      </c>
+      <c r="G55">
         <f t="shared" si="1"/>
-        <v/>
+        <v>400</v>
+      </c>
+      <c r="I55">
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -2616,11 +2552,11 @@
         <v>140</v>
       </c>
       <c r="E58">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G58">
         <f t="shared" si="1"/>
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="I58">
         <v>3</v>
@@ -3010,29 +2946,29 @@
       </c>
       <c r="B76" s="2">
         <f>AVERAGE(B2:B72)</f>
-        <v>95.526315789473685</v>
+        <v>95.762711864406782</v>
       </c>
       <c r="C76" s="2">
         <f t="shared" ref="C76:I76" si="3">AVERAGE(C2:C72)</f>
-        <v>92.456140350877192</v>
+        <v>91.440677966101688</v>
       </c>
       <c r="D76" s="2">
         <f t="shared" si="3"/>
-        <v>97.631578947368425</v>
+        <v>97.457627118644069</v>
       </c>
       <c r="E76" s="2">
         <f t="shared" si="3"/>
-        <v>98.596491228070178</v>
+        <v>98.983050847457633</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2">
         <f t="shared" si="3"/>
-        <v>384.21052631578948</v>
+        <v>383.64406779661016</v>
       </c>
       <c r="H76" s="2"/>
       <c r="I76" s="2">
         <f t="shared" si="3"/>
-        <v>4.7719298245614032</v>
+        <v>4.7627118644067794</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
@@ -3082,7 +3018,7 @@
       </c>
       <c r="E78">
         <f t="shared" si="6"/>
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G78">
         <f>MIN(G2:G72)</f>
@@ -3136,19 +3072,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F78D61-D830-2644-85BF-423D5462D15F}">
-  <dimension ref="A1:AG32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F78D61-D830-2644-85BF-423D5462D15F}">
+  <dimension ref="A1:AH32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="17" max="17" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="18" max="18" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>167</v>
       </c>
@@ -3167,151 +3105,157 @@
       <c r="G1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <f>VLOOKUP($A2, Stats!$A:$E, 2)</f>
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="E2">
         <f>VLOOKUP($A2, Stats!$A:$E, 3)</f>
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="F2">
         <f>VLOOKUP($A2, Stats!$A:$E, 4)</f>
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="G2">
         <f>VLOOKUP($A2, Stats!$A:$E, 5)</f>
-        <v>120</v>
-      </c>
-      <c r="I2" s="7">
-        <f>(D$6+(D2-100)*D$5)*(20+$B2*4)/100</f>
-        <v>22.56</v>
-      </c>
-      <c r="J2" s="7">
-        <f t="shared" ref="J2" si="0">(E$6+(E2-100)*E$5)*(20+$B2*4)/100</f>
-        <v>12.96</v>
-      </c>
-      <c r="K2" s="7">
-        <f t="shared" ref="K2" si="1">(F$6+(F2-100)*F$5)*(20+$B2*4)/100</f>
-        <v>29.76</v>
-      </c>
-      <c r="L2" s="7">
-        <f t="shared" ref="L2" si="2">(G$6+(G2-100)*G$5)*(20+$B2*4)/100</f>
-        <v>25.92</v>
-      </c>
-      <c r="N2" s="7">
-        <f>MAX(I2-J3,0)</f>
-        <v>8.1599999999999984</v>
-      </c>
-      <c r="O2" s="4">
-        <f>N2/K3</f>
-        <v>0.2428571428571428</v>
+        <v>50</v>
+      </c>
+      <c r="J2" s="6">
+        <f>(D$6+(D2-100)*D$5)*(1/J$5+$B2*(1-1/J$5)/20)</f>
+        <v>80</v>
+      </c>
+      <c r="K2" s="6">
+        <f t="shared" ref="K2:M2" si="0">(E$6+(E2-100)*E$5)*(1/K$5+$B2*(1-1/K$5)/20)</f>
+        <v>80</v>
+      </c>
+      <c r="L2" s="6">
+        <f t="shared" si="0"/>
+        <v>172</v>
+      </c>
+      <c r="M2" s="6">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="O2" s="6">
+        <f>MAX(J2-K3,0)</f>
+        <v>10</v>
       </c>
       <c r="P2" s="4">
-        <f>MEDIAN((((L2-L3)*100/(20+4*B2))*0.6+6)/100,0,0.5)</f>
-        <v>0.10800000000000004</v>
-      </c>
-      <c r="Q2" s="8">
-        <f>O2+P2*O2</f>
-        <v>0.26908571428571421</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+        <f>O2/L3</f>
+        <v>7.3529411764705885E-2</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>MEDIAN((M2-M3)/100+0.05,0,0.5)</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="7">
+        <f>P2+Q2*P2</f>
+        <v>7.3529411764705885E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <f>VLOOKUP($A3, Stats!$A:$E, 2)</f>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E3">
         <f>VLOOKUP($A3, Stats!$A:$E, 3)</f>
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="F3">
         <f>VLOOKUP($A3, Stats!$A:$E, 4)</f>
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G3">
         <f>VLOOKUP($A3, Stats!$A:$E, 5)</f>
-        <v>100</v>
-      </c>
-      <c r="I3" s="7">
-        <f>(D$6+(D3-100)*D$5)*(20+$B3*4)/100</f>
-        <v>24</v>
-      </c>
-      <c r="J3" s="7">
-        <f t="shared" ref="J3:L3" si="3">(E$6+(E3-100)*E$5)*(20+$B3*4)/100</f>
-        <v>14.4</v>
-      </c>
-      <c r="K3" s="7">
-        <f t="shared" si="3"/>
-        <v>33.6</v>
-      </c>
-      <c r="L3" s="7">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="N3" s="7">
-        <f>MAX(I3-J2,0)</f>
-        <v>11.04</v>
-      </c>
-      <c r="O3" s="4">
-        <f>N3/K2</f>
-        <v>0.37096774193548382</v>
+        <v>115</v>
+      </c>
+      <c r="J3" s="6">
+        <f>(D$6+(D3-100)*D$5)*(1/J$5+$B3*(1-1/J$5)/20)</f>
+        <v>88</v>
+      </c>
+      <c r="K3" s="6">
+        <f t="shared" ref="K3" si="1">(E$6+(E3-100)*E$5)*(1/K$5+$B3*(1-1/K$5)/20)</f>
+        <v>70</v>
+      </c>
+      <c r="L3" s="6">
+        <f t="shared" ref="L3" si="2">(F$6+(F3-100)*F$5)*(1/L$5+$B3*(1-1/L$5)/20)</f>
+        <v>136</v>
+      </c>
+      <c r="M3" s="6">
+        <f t="shared" ref="M3" si="3">(G$6+(G3-100)*G$5)*(1/M$5+$B3*(1-1/M$5)/20)</f>
+        <v>106</v>
+      </c>
+      <c r="O3" s="6">
+        <f>MAX(J3-K2,0)</f>
+        <v>8</v>
       </c>
       <c r="P3" s="4">
-        <f>MEDIAN((((L3-L2)*100/(20+4*B3))*0.6+6)/100,0,0.5)</f>
-        <v>1.1999999999999957E-2</v>
-      </c>
-      <c r="Q3" s="8">
-        <f>O3+P3*O3</f>
-        <v>0.37541935483870958</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="P4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+        <f>O3/L2</f>
+        <v>4.6511627906976744E-2</v>
+      </c>
+      <c r="Q3" s="4">
+        <f>MEDIAN((M3-M2)/100+0.05,0,0.5)</f>
+        <v>0.31</v>
+      </c>
+      <c r="R3" s="7">
+        <f>P3+Q3*P3</f>
+        <v>6.0930232558139535E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="D5">
         <v>0.4</v>
@@ -3325,10 +3269,25 @@
       <c r="G5">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>191</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="D6">
         <v>100</v>
@@ -3343,754 +3302,106 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K11" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>210</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K12" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>170</v>
-      </c>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>196</v>
-      </c>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
-      <c r="Z12" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AE12" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="AF12" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AG12" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K13">
-        <v>50</v>
-      </c>
-      <c r="L13">
-        <v>80</v>
-      </c>
-      <c r="M13">
-        <v>50</v>
-      </c>
-      <c r="N13">
-        <v>40</v>
-      </c>
-      <c r="O13">
-        <f>L13-N13</f>
-        <v>40</v>
-      </c>
-      <c r="Q13">
-        <v>50</v>
-      </c>
-      <c r="R13">
-        <f>100+(Q13-100)*0.4</f>
-        <v>80</v>
-      </c>
-      <c r="S13">
-        <v>50</v>
-      </c>
-      <c r="T13">
-        <f>60+(S13-100)*0.4</f>
-        <v>40</v>
-      </c>
-      <c r="U13">
-        <v>50</v>
-      </c>
-      <c r="V13">
-        <f>140+(U13-100)*0.8</f>
-        <v>100</v>
-      </c>
-      <c r="W13">
-        <v>50</v>
-      </c>
-      <c r="X13">
-        <f>100+(W13-100)*0.4</f>
-        <v>80</v>
-      </c>
-      <c r="Z13">
-        <v>50</v>
-      </c>
-      <c r="AA13">
-        <f>R13/5</f>
-        <v>16</v>
-      </c>
-      <c r="AB13">
-        <v>50</v>
-      </c>
-      <c r="AC13">
-        <f>T13/5</f>
-        <v>8</v>
-      </c>
-      <c r="AD13">
-        <v>50</v>
-      </c>
-      <c r="AE13">
-        <f>V13/5</f>
-        <v>20</v>
-      </c>
-      <c r="AF13">
-        <v>50</v>
-      </c>
-      <c r="AG13">
-        <f>X13/5</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K14">
-        <v>75</v>
-      </c>
-      <c r="L14">
-        <v>90</v>
-      </c>
-      <c r="M14">
-        <v>75</v>
-      </c>
-      <c r="N14">
-        <v>50</v>
-      </c>
-      <c r="O14">
-        <f t="shared" ref="O14:O17" si="4">L14-N14</f>
-        <v>40</v>
-      </c>
-      <c r="Q14">
-        <v>75</v>
-      </c>
-      <c r="R14">
-        <f t="shared" ref="R14:R17" si="5">100+(Q14-100)*0.4</f>
-        <v>90</v>
-      </c>
-      <c r="S14">
-        <v>75</v>
-      </c>
-      <c r="T14">
-        <f t="shared" ref="T14:T17" si="6">60+(S14-100)*0.4</f>
-        <v>50</v>
-      </c>
-      <c r="U14">
-        <v>75</v>
-      </c>
-      <c r="V14">
-        <f t="shared" ref="V14:V17" si="7">140+(U14-100)*0.8</f>
-        <v>120</v>
-      </c>
-      <c r="W14">
-        <v>75</v>
-      </c>
-      <c r="X14">
-        <f t="shared" ref="X14:X17" si="8">100+(W14-100)*0.4</f>
-        <v>90</v>
-      </c>
-      <c r="Z14">
-        <v>75</v>
-      </c>
-      <c r="AA14">
-        <f t="shared" ref="AA14:AG17" si="9">R14/5</f>
-        <v>18</v>
-      </c>
-      <c r="AB14">
-        <v>75</v>
-      </c>
-      <c r="AC14">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="AD14">
-        <v>75</v>
-      </c>
-      <c r="AE14">
-        <f t="shared" si="9"/>
-        <v>24</v>
-      </c>
-      <c r="AF14">
-        <v>75</v>
-      </c>
-      <c r="AG14">
-        <f t="shared" si="9"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K15">
-        <v>100</v>
-      </c>
-      <c r="L15">
-        <v>100</v>
-      </c>
-      <c r="M15">
-        <v>100</v>
-      </c>
-      <c r="N15">
-        <v>60</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="Q15">
-        <v>100</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="S15">
-        <v>100</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="U15">
-        <v>100</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="7"/>
-        <v>140</v>
-      </c>
-      <c r="W15">
-        <v>100</v>
-      </c>
-      <c r="X15">
-        <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="Z15">
-        <v>100</v>
-      </c>
-      <c r="AA15">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="AB15">
-        <v>100</v>
-      </c>
-      <c r="AC15">
-        <f t="shared" si="9"/>
-        <v>12</v>
-      </c>
-      <c r="AD15">
-        <v>100</v>
-      </c>
-      <c r="AE15">
-        <f t="shared" si="9"/>
-        <v>28</v>
-      </c>
-      <c r="AF15">
-        <v>100</v>
-      </c>
-      <c r="AG15">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K16">
-        <v>125</v>
-      </c>
-      <c r="L16">
-        <v>110</v>
-      </c>
-      <c r="M16">
-        <v>125</v>
-      </c>
-      <c r="N16">
-        <v>70</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="Q16">
-        <v>125</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="5"/>
-        <v>110</v>
-      </c>
-      <c r="S16">
-        <v>125</v>
-      </c>
-      <c r="T16">
-        <f t="shared" si="6"/>
-        <v>70</v>
-      </c>
-      <c r="U16">
-        <v>125</v>
-      </c>
-      <c r="V16">
-        <f t="shared" si="7"/>
-        <v>160</v>
-      </c>
-      <c r="W16">
-        <v>125</v>
-      </c>
-      <c r="X16">
-        <f t="shared" si="8"/>
-        <v>110</v>
-      </c>
-      <c r="Z16">
-        <v>125</v>
-      </c>
-      <c r="AA16">
-        <f t="shared" si="9"/>
-        <v>22</v>
-      </c>
-      <c r="AB16">
-        <v>125</v>
-      </c>
-      <c r="AC16">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="AD16">
-        <v>125</v>
-      </c>
-      <c r="AE16">
-        <f t="shared" si="9"/>
-        <v>32</v>
-      </c>
-      <c r="AF16">
-        <v>125</v>
-      </c>
-      <c r="AG16">
-        <f t="shared" si="9"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="11:33" x14ac:dyDescent="0.2">
-      <c r="K17">
-        <v>150</v>
-      </c>
-      <c r="L17">
-        <v>120</v>
-      </c>
-      <c r="M17">
-        <v>150</v>
-      </c>
-      <c r="N17">
-        <v>80</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="Q17">
-        <v>150</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="5"/>
-        <v>120</v>
-      </c>
-      <c r="S17">
-        <v>150</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="6"/>
-        <v>80</v>
-      </c>
-      <c r="U17">
-        <v>150</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="7"/>
-        <v>180</v>
-      </c>
-      <c r="W17">
-        <v>150</v>
-      </c>
-      <c r="X17">
-        <f t="shared" si="8"/>
-        <v>120</v>
-      </c>
-      <c r="Z17">
-        <v>150</v>
-      </c>
-      <c r="AA17">
-        <f t="shared" si="9"/>
-        <v>24</v>
-      </c>
-      <c r="AB17">
-        <v>150</v>
-      </c>
-      <c r="AC17">
-        <f t="shared" si="9"/>
-        <v>16</v>
-      </c>
-      <c r="AD17">
-        <v>150</v>
-      </c>
-      <c r="AE17">
-        <f t="shared" si="9"/>
-        <v>36</v>
-      </c>
-      <c r="AF17">
-        <v>150</v>
-      </c>
-      <c r="AG17">
-        <f t="shared" si="9"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="11:33" x14ac:dyDescent="0.2">
-      <c r="K20" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="21" spans="11:33" x14ac:dyDescent="0.2">
-      <c r="K21">
-        <v>50</v>
-      </c>
-      <c r="L21">
-        <v>100</v>
-      </c>
-      <c r="M21" s="4">
-        <f>$O$17/$L21</f>
-        <v>0.4</v>
-      </c>
-      <c r="N21" s="4">
-        <f>$O$17/$L21*5/4</f>
-        <v>0.5</v>
-      </c>
-      <c r="O21" s="4">
-        <f>$O$17/$L21*7/4</f>
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="P21" s="4">
-        <f>$O$17/$L21*3/4</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="Q21" s="4">
-        <f>$O$17/$L21*1/4</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="22" spans="11:33" x14ac:dyDescent="0.2">
-      <c r="K22">
-        <v>75</v>
-      </c>
-      <c r="L22">
-        <v>120</v>
-      </c>
-      <c r="M22" s="4">
-        <f t="shared" ref="M22:M25" si="10">$O$17/$L22</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N22" s="4">
-        <f t="shared" ref="N22:N25" si="11">$O$17/$L22*5/4</f>
-        <v>0.41666666666666663</v>
-      </c>
-      <c r="O22" s="4">
-        <f t="shared" ref="O22:O25" si="12">$O$17/$L22*7/4</f>
-        <v>0.58333333333333326</v>
-      </c>
-      <c r="P22" s="4">
-        <f t="shared" ref="P22:P25" si="13">$O$17/$L22*3/4</f>
-        <v>0.25</v>
-      </c>
-      <c r="Q22" s="4">
-        <f t="shared" ref="Q22:Q25" si="14">$O$17/$L22*1/4</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="11:33" x14ac:dyDescent="0.2">
-      <c r="K23">
-        <v>100</v>
-      </c>
-      <c r="L23">
-        <v>140</v>
-      </c>
-      <c r="M23" s="4">
-        <f t="shared" si="10"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="N23" s="4">
-        <f t="shared" si="11"/>
-        <v>0.3571428571428571</v>
-      </c>
-      <c r="O23" s="4">
-        <f t="shared" si="12"/>
-        <v>0.5</v>
-      </c>
-      <c r="P23" s="4">
-        <f t="shared" si="13"/>
-        <v>0.21428571428571427</v>
-      </c>
-      <c r="Q23" s="4">
-        <f t="shared" si="14"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="11:33" x14ac:dyDescent="0.2">
-      <c r="K24">
-        <v>125</v>
-      </c>
-      <c r="L24">
-        <v>160</v>
-      </c>
-      <c r="M24" s="4">
-        <f t="shared" si="10"/>
-        <v>0.25</v>
-      </c>
-      <c r="N24" s="4">
-        <f t="shared" si="11"/>
-        <v>0.3125</v>
-      </c>
-      <c r="O24" s="4">
-        <f t="shared" si="12"/>
-        <v>0.4375</v>
-      </c>
-      <c r="P24" s="4">
-        <f t="shared" si="13"/>
-        <v>0.1875</v>
-      </c>
-      <c r="Q24" s="4">
-        <f t="shared" si="14"/>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="11:33" x14ac:dyDescent="0.2">
-      <c r="K25">
-        <v>150</v>
-      </c>
-      <c r="L25">
-        <v>180</v>
-      </c>
-      <c r="M25" s="4">
-        <f t="shared" si="10"/>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="N25" s="4">
-        <f t="shared" si="11"/>
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="O25" s="4">
-        <f t="shared" si="12"/>
-        <v>0.38888888888888884</v>
-      </c>
-      <c r="P25" s="4">
-        <f t="shared" si="13"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="Q25" s="4">
-        <f t="shared" si="14"/>
-        <v>5.5555555555555552E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="11:33" x14ac:dyDescent="0.2">
-      <c r="K27" t="s">
-        <v>201</v>
-      </c>
-      <c r="L27" t="s">
-        <v>204</v>
-      </c>
-      <c r="M27" t="s">
-        <v>202</v>
-      </c>
-      <c r="N27" t="s">
-        <v>205</v>
-      </c>
-      <c r="O27" t="s">
-        <v>203</v>
-      </c>
-      <c r="P27" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="28" spans="11:33" x14ac:dyDescent="0.2">
-      <c r="K28">
-        <v>100</v>
-      </c>
-      <c r="L28">
-        <v>100</v>
-      </c>
-      <c r="M28">
-        <v>50</v>
-      </c>
-      <c r="N28">
-        <v>50</v>
-      </c>
-      <c r="O28" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="P28" s="6">
-        <f>MAX((L28-N28)/8+6,0)</f>
-        <v>12.25</v>
-      </c>
-    </row>
-    <row r="29" spans="11:33" x14ac:dyDescent="0.2">
-      <c r="K29">
-        <v>100</v>
-      </c>
-      <c r="L29">
-        <v>100</v>
-      </c>
-      <c r="M29">
-        <v>75</v>
-      </c>
-      <c r="N29">
-        <v>75</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0.09</v>
-      </c>
-      <c r="P29" s="6">
-        <f t="shared" ref="P29:P31" si="15">MAX((L29-N29)/8+6,0)</f>
-        <v>9.125</v>
-      </c>
-    </row>
-    <row r="30" spans="11:33" x14ac:dyDescent="0.2">
-      <c r="K30">
-        <v>100</v>
-      </c>
-      <c r="L30">
-        <v>100</v>
-      </c>
-      <c r="M30">
-        <v>100</v>
-      </c>
-      <c r="N30">
-        <v>100</v>
-      </c>
-      <c r="O30" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="P30" s="6">
-        <f t="shared" si="15"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="11:33" x14ac:dyDescent="0.2">
-      <c r="K31">
-        <v>100</v>
-      </c>
-      <c r="L31">
-        <v>100</v>
-      </c>
-      <c r="M31">
-        <v>125</v>
-      </c>
-      <c r="N31">
-        <v>125</v>
-      </c>
-      <c r="O31" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="P31" s="6">
-        <f t="shared" si="15"/>
-        <v>2.875</v>
-      </c>
-    </row>
-    <row r="32" spans="11:33" x14ac:dyDescent="0.2">
-      <c r="K32">
-        <v>100</v>
-      </c>
-      <c r="L32">
-        <v>100</v>
-      </c>
-      <c r="M32">
-        <v>150</v>
-      </c>
-      <c r="N32">
-        <v>150</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="6">
-        <f>MAX((L32-N32)/8+6,0)</f>
-        <v>0</v>
-      </c>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+    </row>
+    <row r="20" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+    </row>
+    <row r="21" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+    </row>
+    <row r="22" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+    </row>
+    <row r="23" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+    </row>
+    <row r="24" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+    </row>
+    <row r="25" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+    </row>
+    <row r="28" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="P28" s="3"/>
+      <c r="Q28" s="5"/>
+    </row>
+    <row r="29" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+      <c r="Q29" s="5"/>
+    </row>
+    <row r="30" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="P30" s="3"/>
+      <c r="Q30" s="5"/>
+    </row>
+    <row r="31" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="P31" s="3"/>
+      <c r="Q31" s="5"/>
+    </row>
+    <row r="32" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+      <c r="Q32" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814FD987-7A47-2D49-9394-F1DF7A51FC34}">
-  <dimension ref="B1:Q40"/>
+  <dimension ref="B5:R37"/>
   <sheetViews>
-    <sheetView topLeftCell="E10" workbookViewId="0">
+    <sheetView topLeftCell="C7" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
@@ -4101,652 +3412,917 @@
     <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.1640625" customWidth="1"/>
-    <col min="8" max="8" width="43.6640625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J5" t="s">
+        <v>183</v>
+      </c>
+      <c r="K5" t="s">
         <v>180</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="L5" t="s">
+        <v>184</v>
+      </c>
+      <c r="M5" t="s">
+        <v>185</v>
+      </c>
+      <c r="N5" t="s">
+        <v>188</v>
+      </c>
+      <c r="O5" t="s">
+        <v>186</v>
+      </c>
+      <c r="P5" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6" s="4">
         <v>0.3</v>
       </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3">
+      <c r="L6" s="8">
+        <v>40</v>
+      </c>
+      <c r="M6">
+        <f>L6/4</f>
+        <v>10</v>
+      </c>
+      <c r="N6" s="5">
+        <f>(L6-M6)*10/20+M6</f>
+        <v>25</v>
+      </c>
+      <c r="O6">
+        <f>L6*0.6+6</f>
+        <v>30</v>
+      </c>
+      <c r="P6">
+        <f>M6*(20-0)/5*0.6+6</f>
+        <v>30</v>
+      </c>
+      <c r="Q6">
+        <f>(N6*80/(20+3*10))*0.6+6</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B7">
         <v>150</v>
       </c>
-      <c r="C3">
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="J7">
+        <v>75</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="L7" s="8">
+        <v>30</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ref="M7:M10" si="0">L7/4</f>
+        <v>7.5</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" ref="N7:N10" si="1">(L7-M7)*10/20+M7</f>
+        <v>18.75</v>
+      </c>
+      <c r="O7">
+        <f t="shared" ref="O7:O10" si="2">L7*0.6+6</f>
+        <v>24</v>
+      </c>
+      <c r="P7">
+        <f t="shared" ref="P7:P10" si="3">M7*(20-0)/5*0.6+6</f>
+        <v>24</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" ref="Q7:Q10" si="4">(N7*80/(20+3*10))*0.6+6</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>150</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>50</v>
       </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4">
+      <c r="K8" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="L8" s="8">
+        <v>20</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N8" s="5">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B9">
         <v>50</v>
       </c>
-      <c r="C4">
+      <c r="C9">
         <v>150</v>
       </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="H4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5">
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>25</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="L9" s="8">
+        <v>10</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B10">
         <v>150</v>
       </c>
-      <c r="C5">
-        <v>150</v>
-      </c>
-      <c r="D5">
-        <v>100</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="H5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6">
+      <c r="C10">
         <v>50</v>
       </c>
-      <c r="C6">
+      <c r="E10" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>120</v>
+      </c>
+      <c r="C11">
         <v>50</v>
       </c>
-      <c r="D6">
-        <v>100</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>120</v>
-      </c>
-      <c r="C7">
-        <v>100</v>
-      </c>
-      <c r="D7" s="5">
-        <v>100</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>100</v>
-      </c>
-      <c r="C8">
-        <v>120</v>
-      </c>
-      <c r="D8" s="5">
-        <v>100</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>100</v>
-      </c>
-      <c r="C9">
+      <c r="E11" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="J11">
+        <v>-25</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12">
         <v>50</v>
       </c>
-      <c r="D9" s="5">
-        <v>100</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10">
+      <c r="E12" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="J12">
+        <v>-50</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B13">
         <v>50</v>
-      </c>
-      <c r="C10">
-        <v>100</v>
-      </c>
-      <c r="D10" s="5">
-        <v>100</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11">
-        <v>100</v>
-      </c>
-      <c r="C11">
-        <v>150</v>
-      </c>
-      <c r="D11" s="5">
-        <v>100</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12">
-        <v>150</v>
-      </c>
-      <c r="C12">
-        <v>100</v>
-      </c>
-      <c r="D12" s="5">
-        <v>100</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13">
-        <v>120</v>
       </c>
       <c r="C13">
         <v>50</v>
       </c>
-      <c r="D13" s="5">
-        <v>100</v>
-      </c>
       <c r="E13" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+        <v>0.06</v>
+      </c>
+      <c r="J13">
+        <v>-75</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B14">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="C14">
-        <v>120</v>
-      </c>
-      <c r="D14" s="5">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E14" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15">
-        <v>120</v>
-      </c>
-      <c r="C15">
-        <v>150</v>
-      </c>
-      <c r="D15" s="5">
-        <v>100</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16">
-        <v>150</v>
-      </c>
-      <c r="C16">
-        <v>120</v>
-      </c>
-      <c r="D16" s="5">
-        <v>100</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
+        <v>0.06</v>
+      </c>
+      <c r="J14">
+        <v>-100</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="J15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>20</v>
+      </c>
+      <c r="Q20">
+        <f>100/P20</f>
+        <v>5</v>
+      </c>
+      <c r="R20">
+        <f>100/(20+O20*4)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="O21">
+        <v>10</v>
+      </c>
+      <c r="P21">
+        <v>60</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" ref="Q21:Q24" si="5">100/P21</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="R21">
+        <f t="shared" ref="R21:R24" si="6">100/(20+O21*4)</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" t="s">
+        <v>194</v>
+      </c>
+      <c r="D22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F22" t="s">
+        <v>197</v>
+      </c>
+      <c r="G22" t="s">
         <v>198</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
+      <c r="H22" t="s">
         <v>200</v>
       </c>
-      <c r="I21" t="s">
-        <v>211</v>
-      </c>
-      <c r="J21" t="s">
-        <v>203</v>
-      </c>
-      <c r="K21" t="s">
-        <v>212</v>
-      </c>
-      <c r="L21" t="s">
-        <v>213</v>
-      </c>
-      <c r="M21" t="s">
-        <v>216</v>
-      </c>
-      <c r="N21" t="s">
-        <v>214</v>
-      </c>
-      <c r="O21" t="s">
-        <v>215</v>
-      </c>
-      <c r="P21" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B22">
-        <v>100</v>
-      </c>
-      <c r="C22">
-        <v>100</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="I22">
-        <v>100</v>
-      </c>
-      <c r="J22" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="K22" s="9">
-        <v>40</v>
-      </c>
-      <c r="L22">
-        <f>K22/4</f>
-        <v>10</v>
-      </c>
-      <c r="M22" s="6">
-        <f>(K22-L22)*10/20+L22</f>
-        <v>25</v>
-      </c>
-      <c r="N22">
-        <f>K22*0.6+6</f>
-        <v>30</v>
-      </c>
       <c r="O22">
-        <f>L22*(20-0)/5*0.6+6</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P22">
-        <f>(M22*80/(20+3*10))*0.6+6</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>150</v>
       </c>
       <c r="C23">
-        <v>100</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0.18</v>
-      </c>
-      <c r="I23">
-        <v>75</v>
-      </c>
-      <c r="J23" s="4">
-        <v>0.24</v>
-      </c>
-      <c r="K23" s="9">
-        <v>30</v>
-      </c>
-      <c r="L23">
-        <f t="shared" ref="L23:L26" si="0">K23/4</f>
-        <v>7.5</v>
-      </c>
-      <c r="M23" s="6">
-        <f t="shared" ref="M23:M26" si="1">(K23-L23)*10/20+L23</f>
-        <v>18.75</v>
-      </c>
-      <c r="N23">
-        <f t="shared" ref="N23:N26" si="2">K23*0.6+6</f>
+        <v>150</v>
+      </c>
+      <c r="D23">
+        <f>100+(B23-100)*0.4</f>
+        <v>120</v>
+      </c>
+      <c r="E23">
+        <f>100+(B23-100)*0.4</f>
+        <v>120</v>
+      </c>
+      <c r="F23" s="8">
+        <f>D23/E23</f>
+        <v>1</v>
+      </c>
+      <c r="G23" s="4">
+        <f>MAX(F23-0.95,0)</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="H23" s="4">
+        <f>MAX((D23-E23)/100+0.05,0)</f>
+        <v>0.05</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
         <v>24</v>
       </c>
-      <c r="O23">
-        <f t="shared" ref="O23:P26" si="3">L23*(20-0)/5*0.6+6</f>
-        <v>24</v>
-      </c>
-      <c r="P23">
-        <f t="shared" ref="P23:P26" si="4">(M23*80/(20+3*10))*0.6+6</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q23">
+        <f t="shared" si="5"/>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="6"/>
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B24">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="C24">
+        <v>125</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ref="D24:E36" si="7">100+(B24-100)*0.4</f>
+        <v>120</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="7"/>
+        <v>110</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" ref="F24:F36" si="8">D24/E24</f>
+        <v>1.0909090909090908</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" ref="G24:G37" si="9">MAX(F24-0.95,0)</f>
+        <v>0.14090909090909087</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" ref="H24:H37" si="10">MAX((D24-E24)/100+0.05,0)</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="O24">
+        <v>19</v>
+      </c>
+      <c r="P24">
+        <v>96</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="5"/>
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="6"/>
+        <v>1.0416666666666667</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B25">
         <v>150</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>50</v>
-      </c>
-      <c r="J24" s="4">
-        <v>0.18</v>
-      </c>
-      <c r="K24" s="9">
-        <v>20</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="M24" s="6">
-        <f t="shared" si="1"/>
-        <v>12.5</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B25">
-        <v>50</v>
-      </c>
       <c r="C25">
-        <v>150</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>25</v>
-      </c>
-      <c r="J25" s="4">
-        <v>0.12</v>
-      </c>
-      <c r="K25" s="9">
-        <v>10</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="M25" s="6">
-        <f t="shared" si="1"/>
-        <v>6.25</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="8"/>
+        <v>1.2</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="9"/>
+        <v>0.25</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="10"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>150</v>
       </c>
       <c r="C26">
-        <v>50</v>
-      </c>
-      <c r="E26" s="3">
+        <v>75</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" si="8"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="9"/>
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="10"/>
         <v>0.35</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26" s="4">
-        <v>0.06</v>
-      </c>
-      <c r="K26" s="9">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B27">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C27">
         <v>50</v>
       </c>
-      <c r="E27" s="3">
+      <c r="D27">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" si="8"/>
+        <v>1.5</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="9"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" si="10"/>
+        <v>0.45</v>
+      </c>
+      <c r="J27" t="s">
+        <v>183</v>
+      </c>
+      <c r="K27" t="s">
+        <v>180</v>
+      </c>
+      <c r="L27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>100</v>
+      </c>
+      <c r="C28">
+        <v>150</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" si="8"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>100</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>100</v>
+      </c>
+      <c r="C29">
+        <v>125</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="7"/>
+        <v>110</v>
+      </c>
+      <c r="F29" s="8">
+        <f t="shared" si="8"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>75</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>100</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="F30" s="8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G30" s="4">
+        <f t="shared" si="9"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="H30" s="4">
+        <f t="shared" si="10"/>
+        <v>0.05</v>
+      </c>
+      <c r="J30">
+        <v>50</v>
+      </c>
+      <c r="K30" s="4">
         <v>0.18</v>
       </c>
-      <c r="I27">
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>100</v>
+      </c>
+      <c r="C31">
+        <v>75</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="F31" s="8">
+        <f t="shared" si="8"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="9"/>
+        <v>0.1611111111111112</v>
+      </c>
+      <c r="H31" s="4">
+        <f t="shared" si="10"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="J31">
+        <v>25</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>100</v>
+      </c>
+      <c r="C32">
+        <v>50</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="F32" s="8">
+        <f t="shared" si="8"/>
+        <v>1.25</v>
+      </c>
+      <c r="G32" s="4">
+        <f t="shared" si="9"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="H32" s="4">
+        <f t="shared" si="10"/>
+        <v>0.25</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>50</v>
+      </c>
+      <c r="C33">
+        <v>150</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+      <c r="F33" s="8">
+        <f t="shared" si="8"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G33" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J33">
         <v>-25</v>
       </c>
-      <c r="J27" s="4">
-        <v>0</v>
-      </c>
-      <c r="K27" s="9"/>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B28">
-        <v>100</v>
-      </c>
-      <c r="C28">
+      <c r="K33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34">
         <v>50</v>
       </c>
-      <c r="E28" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="I28">
+      <c r="C34">
+        <v>125</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="7"/>
+        <v>110</v>
+      </c>
+      <c r="F34" s="8">
+        <f t="shared" si="8"/>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="G34" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J34">
         <v>-50</v>
       </c>
-      <c r="J28" s="4">
-        <v>0</v>
-      </c>
-      <c r="K28" s="9"/>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B29">
+      <c r="K34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35">
         <v>50</v>
       </c>
-      <c r="C29">
+      <c r="C35">
+        <v>100</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="F35" s="8">
+        <f t="shared" si="8"/>
+        <v>0.8</v>
+      </c>
+      <c r="G35" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>-75</v>
+      </c>
+      <c r="K35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36">
         <v>50</v>
       </c>
-      <c r="E29" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="I29">
-        <v>-75</v>
-      </c>
-      <c r="J29" s="4">
-        <v>0</v>
-      </c>
-      <c r="K29" s="9"/>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B30">
-        <v>150</v>
-      </c>
-      <c r="C30">
-        <v>150</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="I30">
+      <c r="C36">
+        <v>75</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="F36" s="8">
+        <f t="shared" si="8"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="G36" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J36">
         <v>-100</v>
       </c>
-      <c r="J30" s="4">
-        <v>0</v>
-      </c>
-      <c r="K30" s="9"/>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="I31" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="36" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>20</v>
-      </c>
-      <c r="P36">
-        <f>100/O36</f>
-        <v>5</v>
-      </c>
-      <c r="Q36">
-        <f>100/(20+N36*4)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N37">
-        <v>10</v>
-      </c>
-      <c r="O37">
-        <v>60</v>
-      </c>
-      <c r="P37">
-        <f t="shared" ref="P37:P40" si="5">100/O37</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="Q37">
-        <f t="shared" ref="Q37:Q40" si="6">100/(20+N37*4)</f>
-        <v>1.6666666666666667</v>
-      </c>
-    </row>
-    <row r="38" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N38">
-        <v>20</v>
-      </c>
-      <c r="O38">
-        <v>100</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="5"/>
+      <c r="K36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>50</v>
+      </c>
+      <c r="C37">
+        <v>50</v>
+      </c>
+      <c r="D37">
+        <f>100+(B37-100)*0.4</f>
+        <v>80</v>
+      </c>
+      <c r="E37">
+        <f>100+(C37-100)*0.4</f>
+        <v>80</v>
+      </c>
+      <c r="F37" s="8">
+        <f>D37/E37</f>
         <v>1</v>
       </c>
-      <c r="Q38">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>24</v>
-      </c>
-      <c r="P39">
-        <f t="shared" si="5"/>
-        <v>4.166666666666667</v>
-      </c>
-      <c r="Q39">
-        <f t="shared" si="6"/>
-        <v>4.166666666666667</v>
-      </c>
-    </row>
-    <row r="40" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N40">
-        <v>19</v>
-      </c>
-      <c r="O40">
-        <v>96</v>
-      </c>
-      <c r="P40">
-        <f t="shared" si="5"/>
-        <v>1.0416666666666667</v>
-      </c>
-      <c r="Q40">
-        <f t="shared" si="6"/>
-        <v>1.0416666666666667</v>
+      <c r="G37" s="4">
+        <f t="shared" si="9"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="H37" s="4">
+        <f t="shared" si="10"/>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:D1048576">
+  <conditionalFormatting sqref="B1:D22 B38:D1048576 B23:C37 E22:H22">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23:F37">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/stats2.xlsx
+++ b/stats2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="15940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="220">
   <si>
     <t>Name</t>
   </si>
@@ -642,6 +642,54 @@
   </si>
   <si>
     <t>Boosts movement, attack, defense in the sun.</t>
+  </si>
+  <si>
+    <t>Roost</t>
+  </si>
+  <si>
+    <t>Heals user for several turns, but leaves them motionless.</t>
+  </si>
+  <si>
+    <t>Dazzle</t>
+  </si>
+  <si>
+    <t>Makes target unable to act for several turns, or until hit or healed.</t>
+  </si>
+  <si>
+    <t>Mimicry</t>
+  </si>
+  <si>
+    <t>Copies any animal's ability temporarily.</t>
+  </si>
+  <si>
+    <t>Egg Sling</t>
+  </si>
+  <si>
+    <t>Can attack foes from 1/2 spaces away.</t>
+  </si>
+  <si>
+    <t>Can attack foes from only 2 spaces away.</t>
+  </si>
+  <si>
+    <t>Preen</t>
+  </si>
+  <si>
+    <t>Boosts own skill; resets after each attack.</t>
+  </si>
+  <si>
+    <t>Sometimes parries incoming hits, nullifying them but not doing anything in response.</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Attacks knock enemies back a space.</t>
+  </si>
+  <si>
+    <t>Kamikaze</t>
+  </si>
+  <si>
+    <t>Dies, but does a lot of damage.</t>
   </si>
 </sst>
 </file>
@@ -989,11 +1037,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C44" sqref="C44"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1135,9 +1183,33 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="G7" t="str">
+      <c r="B7">
+        <v>105</v>
+      </c>
+      <c r="C7">
+        <v>80</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="0"/>
-        <v/>
+        <v>385</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -1187,7 +1259,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C10">
         <v>65</v>
@@ -1200,7 +1272,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="I10">
         <v>5</v>
@@ -1219,9 +1291,33 @@
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="G11" t="str">
+      <c r="B11">
+        <v>95</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>105</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="0"/>
-        <v/>
+        <v>400</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11" t="s">
+        <v>208</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1285,27 +1381,66 @@
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="G14" t="str">
+      <c r="B14">
+        <v>80</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>115</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="0"/>
-        <v/>
+        <v>395</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
       </c>
       <c r="J14" t="s">
         <v>120</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>121</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="G15" t="str">
+      <c r="B15">
+        <v>105</v>
+      </c>
+      <c r="C15">
+        <v>120</v>
+      </c>
+      <c r="D15">
+        <v>95</v>
+      </c>
+      <c r="E15">
+        <v>90</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="0"/>
-        <v/>
+        <v>410</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15" t="s">
+        <v>210</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1476,7 +1611,7 @@
         <v>335</v>
       </c>
       <c r="I21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J21" t="s">
         <v>91</v>
@@ -1683,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>98</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -2263,9 +2398,33 @@
       <c r="A48" t="s">
         <v>47</v>
       </c>
-      <c r="G48" t="str">
+      <c r="B48">
+        <v>80</v>
+      </c>
+      <c r="C48">
+        <v>105</v>
+      </c>
+      <c r="D48">
+        <v>105</v>
+      </c>
+      <c r="E48">
+        <v>100</v>
+      </c>
+      <c r="G48">
         <f t="shared" si="1"/>
-        <v/>
+        <v>390</v>
+      </c>
+      <c r="I48">
+        <v>4</v>
+      </c>
+      <c r="J48" t="s">
+        <v>213</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -2423,6 +2582,15 @@
       <c r="I53">
         <v>4</v>
       </c>
+      <c r="J53" t="s">
+        <v>216</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
@@ -2693,6 +2861,15 @@
       <c r="I63">
         <v>4</v>
       </c>
+      <c r="J63" t="s">
+        <v>218</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
@@ -2731,9 +2908,33 @@
       <c r="A65" t="s">
         <v>64</v>
       </c>
-      <c r="G65" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B65">
+        <v>95</v>
+      </c>
+      <c r="C65">
+        <v>110</v>
+      </c>
+      <c r="D65">
+        <v>90</v>
+      </c>
+      <c r="E65">
+        <v>115</v>
+      </c>
+      <c r="G65">
+        <f>IF(B65&gt;0,SUM(B65:E65),"")</f>
+        <v>410</v>
+      </c>
+      <c r="I65">
+        <v>5</v>
+      </c>
+      <c r="J65" t="s">
+        <v>206</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -2744,17 +2945,17 @@
         <v>70</v>
       </c>
       <c r="C66">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="D66">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E66">
         <v>85</v>
       </c>
       <c r="G66">
         <f t="shared" ref="G66:G72" si="2">IF(B66&gt;0,SUM(B66:E66),"")</f>
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="I66">
         <v>6</v>
@@ -2930,15 +3131,6 @@
       <c r="I72">
         <v>7</v>
       </c>
-      <c r="J72" t="s">
-        <v>159</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="L72" t="s">
-        <v>160</v>
-      </c>
     </row>
     <row r="76" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
@@ -2946,29 +3138,29 @@
       </c>
       <c r="B76" s="2">
         <f>AVERAGE(B2:B72)</f>
-        <v>95.762711864406782</v>
+        <v>95.615384615384613</v>
       </c>
       <c r="C76" s="2">
         <f t="shared" ref="C76:I76" si="3">AVERAGE(C2:C72)</f>
-        <v>91.440677966101688</v>
+        <v>92.692307692307693</v>
       </c>
       <c r="D76" s="2">
         <f t="shared" si="3"/>
-        <v>97.457627118644069</v>
+        <v>97.92307692307692</v>
       </c>
       <c r="E76" s="2">
         <f t="shared" si="3"/>
-        <v>98.983050847457633</v>
+        <v>99.15384615384616</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2">
         <f t="shared" si="3"/>
-        <v>383.64406779661016</v>
+        <v>385.38461538461536</v>
       </c>
       <c r="H76" s="2"/>
       <c r="I76" s="2">
         <f t="shared" si="3"/>
-        <v>4.7627118644067794</v>
+        <v>4.7076923076923078</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
@@ -3022,7 +3214,7 @@
       </c>
       <c r="G78">
         <f>MIN(G2:G72)</f>
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="I78">
         <f t="shared" ref="I78" si="7">MIN(I2:I72)</f>
@@ -3030,7 +3222,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G1:H1048576">
+  <conditionalFormatting sqref="G1:H47 G49:H1048576 G48">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3054,7 +3246,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:F1048576">
+  <conditionalFormatting sqref="B1:F47 B49:F1048576 B48:E48">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -3075,7 +3267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F78D61-D830-2644-85BF-423D5462D15F}">
   <dimension ref="A1:AH32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
